--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>832888.5267573947</v>
+        <v>827540.1198253651</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24759472.36563574</v>
+        <v>24759472.36563575</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9376920.641459303</v>
+        <v>9376920.641459305</v>
       </c>
     </row>
     <row r="9">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>9.210015655233377</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.84194962413538</v>
       </c>
       <c r="T11" t="n">
-        <v>19.31595844264882</v>
+        <v>211.3232960895365</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>106.2331709133932</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
@@ -1457,13 +1457,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>31.45649308037159</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>104.8615914755636</v>
+        <v>15.38386941440766</v>
       </c>
       <c r="H12" t="n">
         <v>59.8156995043919</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>87.24670604768559</v>
       </c>
       <c r="T12" t="n">
         <v>153.4814633481139</v>
@@ -1514,10 +1514,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,13 +1539,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6903756472761</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2205964328313</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>88.49269365153503</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.51424604779014</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>169.0609451933647</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9217562602587</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>49.08235293455989</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.981896387078</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9.210015655233377</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.84194962413538</v>
       </c>
       <c r="T14" t="n">
-        <v>171.1216779707955</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.3316024484771</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>18.09073236426548</v>
       </c>
     </row>
     <row r="15">
@@ -1691,19 +1691,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>25.8995624018199</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>68.10037647833421</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.8615914755636</v>
       </c>
       <c r="H15" t="n">
-        <v>59.8156995043919</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>87.24670604768559</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>153.4814633481139</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.51424604779014</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>169.0609451933647</v>
+        <v>82.30049032398695</v>
       </c>
       <c r="T16" t="n">
         <v>233.3611569719296</v>
@@ -1830,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>88.24545198554188</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>68.27375016715685</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>287.5365392554012</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>28.52597409788198</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>84.7228127547106</v>
+        <v>57.23378175109633</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>104.8615914755636</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.8156995043919</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>87.24670604768559</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>153.4814633481139</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>95.78472021513497</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6903756472761</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2205964328313</v>
+        <v>139.1153181391142</v>
       </c>
       <c r="I19" t="n">
-        <v>88.49269365153505</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>279.9217562602587</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>398.9775616483913</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>398.9775616483913</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="E20" t="n">
-        <v>353.4696916269036</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.210015655233377</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.3232960895365</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>149.9409883473417</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,22 +2162,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.8615914755636</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>47.71826378687824</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>87.24670604768559</v>
       </c>
       <c r="T21" t="n">
-        <v>153.4814633481139</v>
+        <v>91.6180268796646</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3076566950555</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2228,7 +2228,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>98.44876762295337</v>
       </c>
       <c r="D22" t="n">
-        <v>140.8520117865902</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6903756472761</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2205964328313</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>88.49269365153505</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.51424604779014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>398.9775616483911</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>398.9775616483911</v>
       </c>
       <c r="D23" t="n">
-        <v>398.9775616483911</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.9775616483911</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>351.4194362999027</v>
       </c>
       <c r="H23" t="n">
-        <v>287.5365392554012</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.84194962413538</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>374.0185090687573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,19 +2402,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>53.67408010630165</v>
       </c>
       <c r="E24" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>104.8615914755636</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>59.8156995043919</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>87.24670604768559</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>153.4814633481139</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.3076566950555</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>196.1345208695251</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -2478,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2205964328313</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>15.98651951412509</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.51424604779014</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9217562602587</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>108.78620657852</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>398.9775616483911</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.9775616483911</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>398.9775616483912</v>
       </c>
       <c r="G26" t="n">
-        <v>192.7345227418734</v>
+        <v>398.9775616483912</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>275.532083755047</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>9.210015655233406</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>211.3232960895365</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3316024484771</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>53.67408010630188</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>104.8615914755636</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>59.8156995043919</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>87.24670604768559</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>153.4814633481139</v>
@@ -2693,16 +2693,16 @@
         <v>195.3076566950555</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>122.0966896757395</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>90.8145484823943</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6903756472761</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2205964328313</v>
       </c>
       <c r="I28" t="n">
-        <v>38.10773779673197</v>
+        <v>88.49269365153505</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.51424604779014</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>169.0609451933647</v>
@@ -2772,16 +2772,16 @@
         <v>279.9217562602587</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>336.6113307951368</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>398.9775616483912</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.9775616483912</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>398.9775616483912</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>351.4194362999029</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.84194962413538</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>87.24670604768559</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>153.4814633481139</v>
@@ -2936,7 +2936,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>25.26190989831062</v>
+        <v>4.638334926676046</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.5488046853683</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>62.59395042137965</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2205964328313</v>
       </c>
       <c r="I31" t="n">
-        <v>88.49269365153505</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.51424604779014</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>398.9775616483911</v>
       </c>
       <c r="C32" t="n">
         <v>398.9775616483911</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.9775616483911</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.9775616483911</v>
+        <v>353.760034095557</v>
       </c>
       <c r="H32" t="n">
-        <v>287.5365392554012</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>9.210015655233377</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>54.6728813892681</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>115.7281862028015</v>
@@ -3122,10 +3122,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.8615914755636</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>59.8156995043919</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>87.24670604768559</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>153.4814633481139</v>
+        <v>116.2121967708375</v>
       </c>
       <c r="U33" t="n">
         <v>195.3076566950555</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
-        <v>0.8268641744696423</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
         <v>174.5627220424961</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>140.2373437434657</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.6903756472761</v>
@@ -3207,7 +3207,7 @@
         <v>140.2205964328313</v>
       </c>
       <c r="I34" t="n">
-        <v>88.49269365153505</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>233.3611569719296</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9217562602587</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>91.95377720643778</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>398.9775616483911</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>342.2094206446694</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>398.977561648391</v>
       </c>
       <c r="E35" t="n">
-        <v>398.9775616483911</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>398.9775616483911</v>
+        <v>398.977561648391</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>9.210015655233377</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>353.7600340955568</v>
       </c>
     </row>
     <row r="36">
@@ -3353,16 +3353,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>104.8615914755636</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.8156995043919</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>87.24670604768559</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>46.2286237473027</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3076566950555</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>198.140177512947</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.51424604779014</v>
+        <v>44.51424604779015</v>
       </c>
       <c r="S37" t="n">
-        <v>169.0609451933647</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.3611569719296</v>
       </c>
       <c r="U37" t="n">
-        <v>58.44344874525137</v>
+        <v>56.01922141149806</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>398.9775616483911</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>307.3411721791349</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>287.5365392554012</v>
       </c>
       <c r="I38" t="n">
-        <v>9.210015655233377</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>88.8419496241354</v>
       </c>
       <c r="T38" t="n">
-        <v>161.9116623155614</v>
+        <v>211.3232960895365</v>
       </c>
       <c r="U38" t="n">
         <v>254.3316024484771</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,19 +3587,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>68.10037647833332</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.8615914755636</v>
       </c>
       <c r="H39" t="n">
-        <v>59.8156995043919</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>87.24670604768559</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>153.4814633481139</v>
@@ -3644,7 +3644,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>13.40193176073198</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3663,25 +3663,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6903756472761</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2205964328313</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.3093546919421</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>233.3611569719296</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>123.2936343429187</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>398.9775616483911</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>398.9775616483911</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>287.5365392554012</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.84194962413538</v>
       </c>
       <c r="T41" t="n">
         <v>211.3232960895365</v>
       </c>
       <c r="U41" t="n">
-        <v>159.1510040025744</v>
+        <v>162.6952129792209</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -3830,10 +3830,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>46.00684455087006</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.38402968426863</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>153.4814633481139</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.3076566950555</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6903756472761</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.51424604779014</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>169.0609451933647</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3611569719296</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>190.1931126684676</v>
       </c>
       <c r="Y43" t="n">
-        <v>58.01612968737994</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>87.87781819619235</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>398.9775616483911</v>
       </c>
       <c r="E44" t="n">
-        <v>397.1884009718307</v>
+        <v>398.9775616483911</v>
       </c>
       <c r="F44" t="n">
         <v>398.9775616483911</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3316024484771</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,19 +4061,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>68.10037647833332</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>104.8615914755636</v>
       </c>
       <c r="H45" t="n">
-        <v>41.650024621076</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>195.3076566950555</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6903756472761</v>
+        <v>15.07470068105845</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>190.4236249440543</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.22125104826866</v>
+        <v>434.9258429605495</v>
       </c>
       <c r="C11" t="n">
-        <v>41.22125104826866</v>
+        <v>434.9258429605495</v>
       </c>
       <c r="D11" t="n">
-        <v>41.22125104826866</v>
+        <v>434.9258429605495</v>
       </c>
       <c r="E11" t="n">
-        <v>41.22125104826866</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="F11" t="n">
-        <v>41.22125104826866</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="G11" t="n">
-        <v>41.22125104826866</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="H11" t="n">
-        <v>41.22125104826866</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="I11" t="n">
-        <v>31.91820493187131</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="J11" t="n">
-        <v>125.5759314491372</v>
+        <v>125.5759314491377</v>
       </c>
       <c r="K11" t="n">
-        <v>286.4936851271281</v>
+        <v>286.4936851271284</v>
       </c>
       <c r="L11" t="n">
-        <v>501.0716014382742</v>
+        <v>501.0716014382745</v>
       </c>
       <c r="M11" t="n">
-        <v>752.6570002374492</v>
+        <v>752.6570002374497</v>
       </c>
       <c r="N11" t="n">
         <v>1010.181906207059</v>
       </c>
       <c r="O11" t="n">
-        <v>1247.954591562362</v>
+        <v>1247.954591562363</v>
       </c>
       <c r="P11" t="n">
-        <v>1436.915172099742</v>
+        <v>1436.915172099741</v>
       </c>
       <c r="Q11" t="n">
         <v>1559.306736255195</v>
       </c>
       <c r="R11" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593566</v>
       </c>
       <c r="S11" t="n">
-        <v>1595.910246593565</v>
+        <v>1506.170903538884</v>
       </c>
       <c r="T11" t="n">
-        <v>1576.399177459577</v>
+        <v>1292.713028700968</v>
       </c>
       <c r="U11" t="n">
-        <v>1576.399177459577</v>
+        <v>1292.713028700968</v>
       </c>
       <c r="V11" t="n">
-        <v>1226.561622796057</v>
+        <v>942.8754740374486</v>
       </c>
       <c r="W11" t="n">
-        <v>842.8013219312261</v>
+        <v>942.8754740374486</v>
       </c>
       <c r="X11" t="n">
-        <v>442.1579241001785</v>
+        <v>542.2320762064012</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.22125104826866</v>
+        <v>434.9258429605495</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>480.925367357803</v>
+        <v>588.2222903127406</v>
       </c>
       <c r="C12" t="n">
-        <v>346.9302961067487</v>
+        <v>454.2272190616863</v>
       </c>
       <c r="D12" t="n">
-        <v>230.0331383261411</v>
+        <v>337.3300612810787</v>
       </c>
       <c r="E12" t="n">
-        <v>230.0331383261411</v>
+        <v>216.8372452734067</v>
       </c>
       <c r="F12" t="n">
-        <v>198.2589028914223</v>
+        <v>107.8773654559113</v>
       </c>
       <c r="G12" t="n">
         <v>92.33810342115606</v>
       </c>
       <c r="H12" t="n">
-        <v>31.91820493187131</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="I12" t="n">
-        <v>31.91820493187131</v>
+        <v>47.66613322630519</v>
       </c>
       <c r="J12" t="n">
-        <v>80.07887720831327</v>
+        <v>339.4952094773805</v>
       </c>
       <c r="K12" t="n">
-        <v>194.0458410613656</v>
+        <v>453.4621733304328</v>
       </c>
       <c r="L12" t="n">
-        <v>366.0491175265212</v>
+        <v>625.4654497955884</v>
       </c>
       <c r="M12" t="n">
-        <v>574.6083599006976</v>
+        <v>834.0246921697648</v>
       </c>
       <c r="N12" t="n">
-        <v>794.5230460240019</v>
+        <v>1053.939378293069</v>
       </c>
       <c r="O12" t="n">
-        <v>986.7030029500639</v>
+        <v>1246.119335219131</v>
       </c>
       <c r="P12" t="n">
-        <v>1133.11446943899</v>
+        <v>1392.530801708057</v>
       </c>
       <c r="Q12" t="n">
-        <v>1528.102255470897</v>
+        <v>1501.280693724897</v>
       </c>
       <c r="R12" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593566</v>
       </c>
       <c r="S12" t="n">
-        <v>1595.910246593565</v>
+        <v>1507.782260686813</v>
       </c>
       <c r="T12" t="n">
-        <v>1440.878465433854</v>
+        <v>1352.750479527102</v>
       </c>
       <c r="U12" t="n">
-        <v>1243.598004125718</v>
+        <v>1155.470018218965</v>
       </c>
       <c r="V12" t="n">
-        <v>1029.886477118751</v>
+        <v>941.7584912119985</v>
       </c>
       <c r="W12" t="n">
-        <v>816.6533088550801</v>
+        <v>728.5253229483272</v>
       </c>
       <c r="X12" t="n">
-        <v>640.327326993973</v>
+        <v>728.5253229483272</v>
       </c>
       <c r="Y12" t="n">
-        <v>480.925367357803</v>
+        <v>728.5253229483272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1085.425603201306</v>
+        <v>612.8035964229001</v>
       </c>
       <c r="C13" t="n">
-        <v>914.3322307630226</v>
+        <v>441.7102239846166</v>
       </c>
       <c r="D13" t="n">
-        <v>754.8375860859326</v>
+        <v>282.2155793075266</v>
       </c>
       <c r="E13" t="n">
-        <v>593.9267709542521</v>
+        <v>121.3047641758461</v>
       </c>
       <c r="F13" t="n">
-        <v>429.2956450648434</v>
+        <v>121.3047641758461</v>
       </c>
       <c r="G13" t="n">
-        <v>262.9417302696151</v>
+        <v>121.3047641758461</v>
       </c>
       <c r="H13" t="n">
         <v>121.3047641758461</v>
       </c>
       <c r="I13" t="n">
-        <v>31.91820493187131</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="J13" t="n">
         <v>108.1203479069812</v>
       </c>
       <c r="K13" t="n">
-        <v>333.6887586663788</v>
+        <v>364.7542502496788</v>
       </c>
       <c r="L13" t="n">
-        <v>724.2151290045767</v>
+        <v>755.2806205878768</v>
       </c>
       <c r="M13" t="n">
-        <v>1119.202915036484</v>
+        <v>837.3085772152258</v>
       </c>
       <c r="N13" t="n">
-        <v>1202.462728188642</v>
+        <v>920.5683903673834</v>
       </c>
       <c r="O13" t="n">
-        <v>1271.139840614287</v>
+        <v>1144.86588040845</v>
       </c>
       <c r="P13" t="n">
-        <v>1583.08235979587</v>
+        <v>1456.808399590034</v>
       </c>
       <c r="Q13" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593566</v>
       </c>
       <c r="R13" t="n">
-        <v>1550.946361696808</v>
+        <v>1595.910246593566</v>
       </c>
       <c r="S13" t="n">
-        <v>1380.177730188359</v>
+        <v>1595.910246593566</v>
       </c>
       <c r="T13" t="n">
-        <v>1380.177730188359</v>
+        <v>1595.910246593566</v>
       </c>
       <c r="U13" t="n">
-        <v>1380.177730188359</v>
+        <v>1313.16099784583</v>
       </c>
       <c r="V13" t="n">
-        <v>1380.177730188359</v>
+        <v>1313.16099784583</v>
       </c>
       <c r="W13" t="n">
-        <v>1380.177730188359</v>
+        <v>1263.582863568496</v>
       </c>
       <c r="X13" t="n">
-        <v>1380.177730188359</v>
+        <v>1025.23900142818</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.12530959535</v>
+        <v>800.5033028169445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.9182049318713</v>
+        <v>847.236527105625</v>
       </c>
       <c r="C14" t="n">
-        <v>31.9182049318713</v>
+        <v>847.236527105625</v>
       </c>
       <c r="D14" t="n">
-        <v>31.9182049318713</v>
+        <v>444.2288890769468</v>
       </c>
       <c r="E14" t="n">
-        <v>31.9182049318713</v>
+        <v>444.2288890769468</v>
       </c>
       <c r="F14" t="n">
-        <v>31.9182049318713</v>
+        <v>444.2288890769468</v>
       </c>
       <c r="G14" t="n">
-        <v>31.9182049318713</v>
+        <v>41.22125104826866</v>
       </c>
       <c r="H14" t="n">
-        <v>31.9182049318713</v>
+        <v>41.22125104826866</v>
       </c>
       <c r="I14" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="J14" t="n">
-        <v>125.5759314491374</v>
+        <v>125.5759314491372</v>
       </c>
       <c r="K14" t="n">
-        <v>286.4936851271282</v>
+        <v>286.4936851271281</v>
       </c>
       <c r="L14" t="n">
         <v>501.0716014382742</v>
       </c>
       <c r="M14" t="n">
-        <v>752.6570002374493</v>
+        <v>752.6570002374494</v>
       </c>
       <c r="N14" t="n">
         <v>1010.181906207059</v>
@@ -5299,31 +5299,31 @@
         <v>1436.915172099741</v>
       </c>
       <c r="Q14" t="n">
-        <v>1559.306736255194</v>
+        <v>1559.306736255195</v>
       </c>
       <c r="R14" t="n">
         <v>1595.910246593565</v>
       </c>
       <c r="S14" t="n">
-        <v>1595.910246593565</v>
+        <v>1506.170903538883</v>
       </c>
       <c r="T14" t="n">
-        <v>1423.060066825085</v>
+        <v>1506.170903538883</v>
       </c>
       <c r="U14" t="n">
-        <v>1166.159458291269</v>
+        <v>1249.270295005068</v>
       </c>
       <c r="V14" t="n">
-        <v>816.3219036277502</v>
+        <v>1249.270295005068</v>
       </c>
       <c r="W14" t="n">
-        <v>432.5616027629188</v>
+        <v>865.5099941402366</v>
       </c>
       <c r="X14" t="n">
-        <v>31.9182049318713</v>
+        <v>865.5099941402366</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.9182049318713</v>
+        <v>847.236527105625</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>252.4943488154628</v>
+        <v>340.6223347222164</v>
       </c>
       <c r="C15" t="n">
-        <v>118.4992775644085</v>
+        <v>206.6272634711621</v>
       </c>
       <c r="D15" t="n">
-        <v>92.33810342115606</v>
+        <v>206.6272634711621</v>
       </c>
       <c r="E15" t="n">
-        <v>92.33810342115606</v>
+        <v>206.6272634711621</v>
       </c>
       <c r="F15" t="n">
-        <v>92.33810342115606</v>
+        <v>137.8390044021376</v>
       </c>
       <c r="G15" t="n">
-        <v>92.33810342115606</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="H15" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="I15" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="J15" t="n">
-        <v>80.07887720831326</v>
+        <v>80.07887720831327</v>
       </c>
       <c r="K15" t="n">
         <v>194.0458410613656</v>
@@ -5372,37 +5372,37 @@
         <v>794.5230460240019</v>
       </c>
       <c r="O15" t="n">
-        <v>1028.637994251282</v>
+        <v>986.7030029500639</v>
       </c>
       <c r="P15" t="n">
-        <v>1423.625780283189</v>
+        <v>1194.26262416997</v>
       </c>
       <c r="Q15" t="n">
-        <v>1501.280693724896</v>
+        <v>1589.250410201878</v>
       </c>
       <c r="R15" t="n">
         <v>1595.910246593565</v>
       </c>
       <c r="S15" t="n">
-        <v>1507.782260686812</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T15" t="n">
-        <v>1352.750479527101</v>
+        <v>1440.878465433854</v>
       </c>
       <c r="U15" t="n">
-        <v>1155.470018218964</v>
+        <v>1243.598004125718</v>
       </c>
       <c r="V15" t="n">
-        <v>941.7584912119978</v>
+        <v>1029.886477118751</v>
       </c>
       <c r="W15" t="n">
-        <v>728.5253229483266</v>
+        <v>816.6533088550801</v>
       </c>
       <c r="X15" t="n">
-        <v>552.1993410872194</v>
+        <v>640.327326993973</v>
       </c>
       <c r="Y15" t="n">
-        <v>392.7973814510494</v>
+        <v>480.925367357803</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.9182049318713</v>
+        <v>203.0115773701548</v>
       </c>
       <c r="C16" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="D16" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="E16" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="F16" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="G16" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="H16" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="I16" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="J16" t="n">
-        <v>43.11898427564483</v>
+        <v>108.1203479069812</v>
       </c>
       <c r="K16" t="n">
-        <v>93.47269303262826</v>
+        <v>364.7542502496788</v>
       </c>
       <c r="L16" t="n">
-        <v>483.9990633708262</v>
+        <v>755.2806205878768</v>
       </c>
       <c r="M16" t="n">
-        <v>878.9868494027335</v>
+        <v>837.3085772152258</v>
       </c>
       <c r="N16" t="n">
-        <v>1148.285452243019</v>
+        <v>920.5683903673834</v>
       </c>
       <c r="O16" t="n">
-        <v>1532.037324087404</v>
+        <v>1144.86588040845</v>
       </c>
       <c r="P16" t="n">
-        <v>1583.08235979587</v>
+        <v>1456.808399590033</v>
       </c>
       <c r="Q16" t="n">
         <v>1595.910246593565</v>
       </c>
       <c r="R16" t="n">
-        <v>1550.946361696807</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="S16" t="n">
-        <v>1380.177730188358</v>
+        <v>1512.778438185498</v>
       </c>
       <c r="T16" t="n">
-        <v>1144.459389812672</v>
+        <v>1277.060097809811</v>
       </c>
       <c r="U16" t="n">
-        <v>861.7101410649354</v>
+        <v>994.3108490620752</v>
       </c>
       <c r="V16" t="n">
-        <v>587.8243960044574</v>
+        <v>720.4251040015971</v>
       </c>
       <c r="W16" t="n">
-        <v>308.7547315133318</v>
+        <v>441.3554395104715</v>
       </c>
       <c r="X16" t="n">
-        <v>219.6179113259157</v>
+        <v>203.0115773701548</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.6179113259157</v>
+        <v>203.0115773701548</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.9182049318713</v>
+        <v>794.3301757106082</v>
       </c>
       <c r="C17" t="n">
-        <v>31.9182049318713</v>
+        <v>794.3301757106082</v>
       </c>
       <c r="D17" t="n">
-        <v>31.9182049318713</v>
+        <v>794.3301757106082</v>
       </c>
       <c r="E17" t="n">
-        <v>31.9182049318713</v>
+        <v>794.3301757106082</v>
       </c>
       <c r="F17" t="n">
-        <v>31.9182049318713</v>
+        <v>725.366791703379</v>
       </c>
       <c r="G17" t="n">
-        <v>31.9182049318713</v>
+        <v>322.3591536747008</v>
       </c>
       <c r="H17" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="I17" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="J17" t="n">
         <v>125.5759314491374</v>
       </c>
       <c r="K17" t="n">
-        <v>286.4936851271286</v>
+        <v>286.4936851271282</v>
       </c>
       <c r="L17" t="n">
-        <v>501.0716014382745</v>
+        <v>501.0716014382742</v>
       </c>
       <c r="M17" t="n">
-        <v>752.6570002374497</v>
+        <v>752.6570002374494</v>
       </c>
       <c r="N17" t="n">
         <v>1010.181906207059</v>
@@ -5545,22 +5545,22 @@
         <v>1595.910246593565</v>
       </c>
       <c r="T17" t="n">
-        <v>1567.096131343179</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="U17" t="n">
-        <v>1567.096131343179</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="V17" t="n">
-        <v>1217.25857667966</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="W17" t="n">
-        <v>833.4982758148287</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="X17" t="n">
-        <v>432.8548779837812</v>
+        <v>1195.266848762518</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.9182049318713</v>
+        <v>794.3301757106082</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>392.7973814510497</v>
+        <v>340.6223347222164</v>
       </c>
       <c r="C18" t="n">
-        <v>392.7973814510497</v>
+        <v>206.6272634711621</v>
       </c>
       <c r="D18" t="n">
-        <v>392.7973814510497</v>
+        <v>89.73010569055448</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2187827089177</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="F18" t="n">
-        <v>198.2589028914223</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="G18" t="n">
-        <v>92.33810342115606</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="H18" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="I18" t="n">
-        <v>47.66613322630518</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="J18" t="n">
-        <v>95.82680550274713</v>
+        <v>80.07887720831327</v>
       </c>
       <c r="K18" t="n">
-        <v>209.7937693557995</v>
+        <v>349.5423588157951</v>
       </c>
       <c r="L18" t="n">
-        <v>381.797045820955</v>
+        <v>744.5301448477026</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3562881951314</v>
+        <v>953.089387221879</v>
       </c>
       <c r="N18" t="n">
-        <v>810.2709743184357</v>
+        <v>1173.004073345183</v>
       </c>
       <c r="O18" t="n">
-        <v>1002.450931244498</v>
+        <v>1365.184030271245</v>
       </c>
       <c r="P18" t="n">
-        <v>1397.438717276405</v>
+        <v>1511.595496760171</v>
       </c>
       <c r="Q18" t="n">
-        <v>1501.280693724897</v>
+        <v>1589.250410201878</v>
       </c>
       <c r="R18" t="n">
         <v>1595.910246593565</v>
       </c>
       <c r="S18" t="n">
-        <v>1507.782260686812</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T18" t="n">
-        <v>1352.750479527101</v>
+        <v>1440.878465433854</v>
       </c>
       <c r="U18" t="n">
-        <v>1155.470018218964</v>
+        <v>1243.598004125718</v>
       </c>
       <c r="V18" t="n">
-        <v>941.758491211998</v>
+        <v>1029.886477118751</v>
       </c>
       <c r="W18" t="n">
-        <v>728.5253229483268</v>
+        <v>816.6533088550801</v>
       </c>
       <c r="X18" t="n">
-        <v>552.1993410872196</v>
+        <v>640.327326993973</v>
       </c>
       <c r="Y18" t="n">
-        <v>392.7973814510497</v>
+        <v>480.925367357803</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>526.0478877063939</v>
+        <v>343.5321007429974</v>
       </c>
       <c r="C19" t="n">
-        <v>526.0478877063939</v>
+        <v>172.4387283047139</v>
       </c>
       <c r="D19" t="n">
-        <v>526.0478877063939</v>
+        <v>172.4387283047139</v>
       </c>
       <c r="E19" t="n">
-        <v>526.0478877063939</v>
+        <v>172.4387283047139</v>
       </c>
       <c r="F19" t="n">
-        <v>429.2956450648434</v>
+        <v>172.4387283047139</v>
       </c>
       <c r="G19" t="n">
-        <v>262.9417302696151</v>
+        <v>172.4387283047139</v>
       </c>
       <c r="H19" t="n">
-        <v>121.3047641758461</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="I19" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187131</v>
       </c>
       <c r="J19" t="n">
-        <v>43.11898427564483</v>
+        <v>43.11898427564485</v>
       </c>
       <c r="K19" t="n">
-        <v>93.47269303262826</v>
+        <v>299.7528866183424</v>
       </c>
       <c r="L19" t="n">
-        <v>170.0199521358032</v>
+        <v>376.3001457215174</v>
       </c>
       <c r="M19" t="n">
-        <v>492.4001827379935</v>
+        <v>458.3281023488663</v>
       </c>
       <c r="N19" t="n">
-        <v>887.3879687699009</v>
+        <v>761.1140085640641</v>
       </c>
       <c r="O19" t="n">
-        <v>1271.139840614286</v>
+        <v>1144.86588040845</v>
       </c>
       <c r="P19" t="n">
-        <v>1583.08235979587</v>
+        <v>1456.808399590033</v>
       </c>
       <c r="Q19" t="n">
         <v>1595.910246593565</v>
@@ -5706,19 +5706,19 @@
         <v>1550.946361696808</v>
       </c>
       <c r="U19" t="n">
-        <v>1268.197112949071</v>
+        <v>1268.197112949072</v>
       </c>
       <c r="V19" t="n">
-        <v>1268.197112949071</v>
+        <v>994.3113678885936</v>
       </c>
       <c r="W19" t="n">
-        <v>989.1274484579458</v>
+        <v>994.3113678885936</v>
       </c>
       <c r="X19" t="n">
-        <v>750.7835863176292</v>
+        <v>755.9675057482771</v>
       </c>
       <c r="Y19" t="n">
-        <v>526.0478877063939</v>
+        <v>531.2318071370418</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.973573541655</v>
+        <v>847.2365271056251</v>
       </c>
       <c r="C20" t="n">
-        <v>791.9659355129772</v>
+        <v>847.2365271056251</v>
       </c>
       <c r="D20" t="n">
-        <v>388.9582974842992</v>
+        <v>444.2288890769469</v>
       </c>
       <c r="E20" t="n">
-        <v>31.9182049318713</v>
+        <v>41.22125104826867</v>
       </c>
       <c r="F20" t="n">
-        <v>31.9182049318713</v>
+        <v>41.22125104826867</v>
       </c>
       <c r="G20" t="n">
-        <v>31.9182049318713</v>
+        <v>41.22125104826867</v>
       </c>
       <c r="H20" t="n">
-        <v>31.9182049318713</v>
+        <v>41.22125104826867</v>
       </c>
       <c r="I20" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="J20" t="n">
-        <v>125.5759314491372</v>
+        <v>125.5759314491379</v>
       </c>
       <c r="K20" t="n">
-        <v>286.4936851271281</v>
+        <v>286.4936851271286</v>
       </c>
       <c r="L20" t="n">
-        <v>501.0716014382742</v>
+        <v>501.0716014382748</v>
       </c>
       <c r="M20" t="n">
-        <v>752.6570002374494</v>
+        <v>752.6570002374499</v>
       </c>
       <c r="N20" t="n">
-        <v>1010.181906207059</v>
+        <v>1010.18190620706</v>
       </c>
       <c r="O20" t="n">
-        <v>1247.954591562362</v>
+        <v>1247.954591562363</v>
       </c>
       <c r="P20" t="n">
-        <v>1436.915172099741</v>
+        <v>1436.915172099742</v>
       </c>
       <c r="Q20" t="n">
-        <v>1559.306736255194</v>
+        <v>1559.306736255195</v>
       </c>
       <c r="R20" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593566</v>
       </c>
       <c r="S20" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593566</v>
       </c>
       <c r="T20" t="n">
-        <v>1595.910246593565</v>
+        <v>1382.45237175565</v>
       </c>
       <c r="U20" t="n">
-        <v>1595.910246593565</v>
+        <v>1230.996827970456</v>
       </c>
       <c r="V20" t="n">
-        <v>1595.910246593565</v>
+        <v>1230.996827970456</v>
       </c>
       <c r="W20" t="n">
-        <v>1595.910246593565</v>
+        <v>847.2365271056251</v>
       </c>
       <c r="X20" t="n">
-        <v>1595.910246593565</v>
+        <v>847.2365271056251</v>
       </c>
       <c r="Y20" t="n">
-        <v>1194.973573541655</v>
+        <v>847.2365271056251</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>411.8963084516328</v>
+        <v>512.2631297887006</v>
       </c>
       <c r="C21" t="n">
-        <v>411.8963084516328</v>
+        <v>378.2680585376463</v>
       </c>
       <c r="D21" t="n">
-        <v>294.9991506710252</v>
+        <v>261.3709007570387</v>
       </c>
       <c r="E21" t="n">
-        <v>294.9991506710252</v>
+        <v>140.8780847493667</v>
       </c>
       <c r="F21" t="n">
-        <v>186.0392708535298</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="G21" t="n">
-        <v>80.11847138326347</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="H21" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="I21" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="J21" t="n">
-        <v>323.7472811829465</v>
+        <v>80.07887720831326</v>
       </c>
       <c r="K21" t="n">
-        <v>572.5268683825466</v>
+        <v>194.0458410613656</v>
       </c>
       <c r="L21" t="n">
-        <v>744.5301448477021</v>
+        <v>366.0491175265212</v>
       </c>
       <c r="M21" t="n">
-        <v>953.0893872218785</v>
+        <v>574.6083599006976</v>
       </c>
       <c r="N21" t="n">
-        <v>1173.004073345183</v>
+        <v>794.5230460240018</v>
       </c>
       <c r="O21" t="n">
-        <v>1365.184030271245</v>
+        <v>986.7030029500638</v>
       </c>
       <c r="P21" t="n">
-        <v>1511.59549676017</v>
+        <v>1133.114469438989</v>
       </c>
       <c r="Q21" t="n">
-        <v>1589.250410201877</v>
+        <v>1528.102255470897</v>
       </c>
       <c r="R21" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593566</v>
       </c>
       <c r="S21" t="n">
-        <v>1507.782260686812</v>
+        <v>1507.782260686813</v>
       </c>
       <c r="T21" t="n">
-        <v>1352.750479527101</v>
+        <v>1415.238799192202</v>
       </c>
       <c r="U21" t="n">
-        <v>1155.470018218964</v>
+        <v>1415.238799192202</v>
       </c>
       <c r="V21" t="n">
-        <v>941.7584912119978</v>
+        <v>1201.527272185236</v>
       </c>
       <c r="W21" t="n">
-        <v>728.5253229483266</v>
+        <v>988.2941039215643</v>
       </c>
       <c r="X21" t="n">
-        <v>552.1993410872194</v>
+        <v>811.9681220604572</v>
       </c>
       <c r="Y21" t="n">
-        <v>552.1993410872194</v>
+        <v>652.5661624242872</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>897.1123454663267</v>
+        <v>385.3790896843997</v>
       </c>
       <c r="C22" t="n">
-        <v>897.1123454663267</v>
+        <v>285.9358900652549</v>
       </c>
       <c r="D22" t="n">
-        <v>754.8375860859326</v>
+        <v>285.9358900652549</v>
       </c>
       <c r="E22" t="n">
-        <v>593.9267709542521</v>
+        <v>285.9358900652549</v>
       </c>
       <c r="F22" t="n">
-        <v>429.2956450648434</v>
+        <v>121.3047641758461</v>
       </c>
       <c r="G22" t="n">
-        <v>262.9417302696151</v>
+        <v>121.3047641758461</v>
       </c>
       <c r="H22" t="n">
         <v>121.3047641758461</v>
       </c>
       <c r="I22" t="n">
-        <v>31.9182049318713</v>
+        <v>31.91820493187132</v>
       </c>
       <c r="J22" t="n">
-        <v>43.11898427564483</v>
+        <v>43.11898427564484</v>
       </c>
       <c r="K22" t="n">
-        <v>93.47269303262824</v>
+        <v>207.5510068016329</v>
       </c>
       <c r="L22" t="n">
-        <v>483.9990633708262</v>
+        <v>284.0982659048078</v>
       </c>
       <c r="M22" t="n">
-        <v>878.9868494027335</v>
+        <v>366.1262225321568</v>
       </c>
       <c r="N22" t="n">
-        <v>962.2466625548909</v>
+        <v>761.1140085640643</v>
       </c>
       <c r="O22" t="n">
-        <v>1271.139840614286</v>
+        <v>1144.86588040845</v>
       </c>
       <c r="P22" t="n">
-        <v>1583.08235979587</v>
+        <v>1456.808399590034</v>
       </c>
       <c r="Q22" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593566</v>
       </c>
       <c r="R22" t="n">
-        <v>1595.910246593565</v>
+        <v>1550.946361696808</v>
       </c>
       <c r="S22" t="n">
-        <v>1595.910246593565</v>
+        <v>1550.946361696808</v>
       </c>
       <c r="T22" t="n">
-        <v>1360.191906217879</v>
+        <v>1315.228021321122</v>
       </c>
       <c r="U22" t="n">
-        <v>1360.191906217879</v>
+        <v>1315.228021321122</v>
       </c>
       <c r="V22" t="n">
-        <v>1360.191906217879</v>
+        <v>1315.228021321122</v>
       </c>
       <c r="W22" t="n">
-        <v>1360.191906217879</v>
+        <v>1036.158356829996</v>
       </c>
       <c r="X22" t="n">
-        <v>1121.848044077562</v>
+        <v>797.8144946896793</v>
       </c>
       <c r="Y22" t="n">
-        <v>897.1123454663267</v>
+        <v>573.078796078444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1128.374429732057</v>
+        <v>1192.902608564887</v>
       </c>
       <c r="C23" t="n">
-        <v>1128.374429732057</v>
+        <v>789.8949705362086</v>
       </c>
       <c r="D23" t="n">
-        <v>725.3667917033788</v>
+        <v>789.8949705362086</v>
       </c>
       <c r="E23" t="n">
-        <v>322.3591536747008</v>
+        <v>386.8873325075306</v>
       </c>
       <c r="F23" t="n">
-        <v>322.3591536747008</v>
+        <v>386.8873325075306</v>
       </c>
       <c r="G23" t="n">
-        <v>322.3591536747008</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="H23" t="n">
         <v>31.91820493187129</v>
@@ -5995,10 +5995,10 @@
         <v>286.4936851271281</v>
       </c>
       <c r="L23" t="n">
-        <v>501.071601438274</v>
+        <v>501.0716014382741</v>
       </c>
       <c r="M23" t="n">
-        <v>752.6570002374491</v>
+        <v>752.6570002374492</v>
       </c>
       <c r="N23" t="n">
         <v>1010.181906207059</v>
@@ -6016,25 +6016,25 @@
         <v>1595.910246593565</v>
       </c>
       <c r="S23" t="n">
-        <v>1506.170903538882</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T23" t="n">
-        <v>1506.170903538882</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="U23" t="n">
-        <v>1506.170903538882</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="V23" t="n">
-        <v>1506.170903538882</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="W23" t="n">
-        <v>1506.170903538882</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="X23" t="n">
-        <v>1506.170903538882</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="Y23" t="n">
-        <v>1128.374429732057</v>
+        <v>1595.910246593565</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>678.6038277482517</v>
+        <v>340.6223347222154</v>
       </c>
       <c r="C24" t="n">
-        <v>544.6087564971973</v>
+        <v>206.6272634711611</v>
       </c>
       <c r="D24" t="n">
-        <v>427.7115987165897</v>
+        <v>152.4110209395433</v>
       </c>
       <c r="E24" t="n">
-        <v>307.2187827089177</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="F24" t="n">
-        <v>198.2589028914223</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="G24" t="n">
-        <v>92.33810342115605</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="H24" t="n">
         <v>31.91820493187129</v>
       </c>
       <c r="I24" t="n">
-        <v>47.66613322630516</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="J24" t="n">
-        <v>95.82680550274711</v>
+        <v>141.2270319392936</v>
       </c>
       <c r="K24" t="n">
-        <v>484.557151905565</v>
+        <v>255.193995792346</v>
       </c>
       <c r="L24" t="n">
-        <v>656.5604283707205</v>
+        <v>427.1972722575015</v>
       </c>
       <c r="M24" t="n">
-        <v>865.1196707448969</v>
+        <v>635.7565146316779</v>
       </c>
       <c r="N24" t="n">
-        <v>1085.034356868201</v>
+        <v>855.6712007549822</v>
       </c>
       <c r="O24" t="n">
-        <v>1277.214313794263</v>
+        <v>1047.851157681044</v>
       </c>
       <c r="P24" t="n">
-        <v>1423.625780283189</v>
+        <v>1194.26262416997</v>
       </c>
       <c r="Q24" t="n">
-        <v>1501.280693724896</v>
+        <v>1589.250410201877</v>
       </c>
       <c r="R24" t="n">
         <v>1595.910246593565</v>
       </c>
       <c r="S24" t="n">
-        <v>1507.782260686811</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T24" t="n">
-        <v>1352.7504795271</v>
+        <v>1440.878465433854</v>
       </c>
       <c r="U24" t="n">
-        <v>1352.7504795271</v>
+        <v>1243.598004125717</v>
       </c>
       <c r="V24" t="n">
-        <v>1352.7504795271</v>
+        <v>1029.88647711875</v>
       </c>
       <c r="W24" t="n">
-        <v>1154.634801881115</v>
+        <v>816.6533088550792</v>
       </c>
       <c r="X24" t="n">
-        <v>978.3088200200083</v>
+        <v>640.3273269939721</v>
       </c>
       <c r="Y24" t="n">
-        <v>818.9068603838383</v>
+        <v>480.9253673578021</v>
       </c>
     </row>
     <row r="25">
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>845.8331286713203</v>
+        <v>516.9547906300505</v>
       </c>
       <c r="C25" t="n">
-        <v>674.7397562330368</v>
+        <v>516.9547906300505</v>
       </c>
       <c r="D25" t="n">
-        <v>515.2451115559468</v>
+        <v>357.4601459529605</v>
       </c>
       <c r="E25" t="n">
-        <v>354.3342964242663</v>
+        <v>196.54933082128</v>
       </c>
       <c r="F25" t="n">
-        <v>189.7031705348575</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="G25" t="n">
-        <v>189.7031705348575</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="H25" t="n">
-        <v>48.06620444108856</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="I25" t="n">
         <v>31.91820493187129</v>
       </c>
       <c r="J25" t="n">
-        <v>108.1203479069812</v>
+        <v>43.11898427564482</v>
       </c>
       <c r="K25" t="n">
-        <v>158.4740566639646</v>
+        <v>93.47269303262823</v>
       </c>
       <c r="L25" t="n">
-        <v>549.0004270021626</v>
+        <v>483.9990633708262</v>
       </c>
       <c r="M25" t="n">
-        <v>943.9882130340698</v>
+        <v>878.9868494027335</v>
       </c>
       <c r="N25" t="n">
-        <v>1027.248026186227</v>
+        <v>1273.974635434641</v>
       </c>
       <c r="O25" t="n">
-        <v>1271.139840614286</v>
+        <v>1532.037324087404</v>
       </c>
       <c r="P25" t="n">
         <v>1583.082359795869</v>
@@ -6171,28 +6171,28 @@
         <v>1595.910246593565</v>
       </c>
       <c r="R25" t="n">
-        <v>1550.946361696807</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="S25" t="n">
-        <v>1550.946361696807</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T25" t="n">
-        <v>1550.946361696807</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="U25" t="n">
-        <v>1550.946361696807</v>
+        <v>1313.160997845828</v>
       </c>
       <c r="V25" t="n">
-        <v>1550.946361696807</v>
+        <v>1039.27525278535</v>
       </c>
       <c r="W25" t="n">
-        <v>1271.876697205681</v>
+        <v>1039.27525278535</v>
       </c>
       <c r="X25" t="n">
-        <v>1033.532835065365</v>
+        <v>929.3901956353302</v>
       </c>
       <c r="Y25" t="n">
-        <v>1033.532835065365</v>
+        <v>704.6544970240949</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>629.6071790634517</v>
+        <v>1125.551763221834</v>
       </c>
       <c r="C26" t="n">
-        <v>629.6071790634517</v>
+        <v>1125.551763221834</v>
       </c>
       <c r="D26" t="n">
-        <v>629.6071790634517</v>
+        <v>1125.551763221834</v>
       </c>
       <c r="E26" t="n">
-        <v>226.5995410347737</v>
+        <v>1125.551763221834</v>
       </c>
       <c r="F26" t="n">
-        <v>226.5995410347737</v>
+        <v>722.5441251931559</v>
       </c>
       <c r="G26" t="n">
-        <v>31.91820493187129</v>
+        <v>319.5364871644779</v>
       </c>
       <c r="H26" t="n">
-        <v>31.91820493187129</v>
+        <v>41.22125104826868</v>
       </c>
       <c r="I26" t="n">
-        <v>31.91820493187129</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="J26" t="n">
-        <v>125.5759314491374</v>
+        <v>125.5759314491376</v>
       </c>
       <c r="K26" t="n">
-        <v>286.4936851271282</v>
+        <v>286.4936851271283</v>
       </c>
       <c r="L26" t="n">
         <v>501.0716014382742</v>
       </c>
       <c r="M26" t="n">
-        <v>752.6570002374491</v>
+        <v>752.6570002374494</v>
       </c>
       <c r="N26" t="n">
         <v>1010.181906207059</v>
@@ -6259,19 +6259,19 @@
         <v>1382.452371755649</v>
       </c>
       <c r="U26" t="n">
-        <v>1382.452371755649</v>
+        <v>1125.551763221834</v>
       </c>
       <c r="V26" t="n">
-        <v>1032.61481709213</v>
+        <v>1125.551763221834</v>
       </c>
       <c r="W26" t="n">
-        <v>1032.61481709213</v>
+        <v>1125.551763221834</v>
       </c>
       <c r="X26" t="n">
-        <v>1032.61481709213</v>
+        <v>1125.551763221834</v>
       </c>
       <c r="Y26" t="n">
-        <v>1032.61481709213</v>
+        <v>1125.551763221834</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>678.6038277482517</v>
+        <v>340.6223347222157</v>
       </c>
       <c r="C27" t="n">
-        <v>544.6087564971973</v>
+        <v>206.6272634711614</v>
       </c>
       <c r="D27" t="n">
-        <v>427.7115987165897</v>
+        <v>152.4110209395433</v>
       </c>
       <c r="E27" t="n">
-        <v>307.2187827089177</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="F27" t="n">
-        <v>198.2589028914223</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="G27" t="n">
-        <v>92.33810342115605</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="H27" t="n">
-        <v>31.91820493187129</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="I27" t="n">
-        <v>31.91820493187129</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="J27" t="n">
-        <v>323.7472811829465</v>
+        <v>141.2270319392943</v>
       </c>
       <c r="K27" t="n">
-        <v>437.7142450359989</v>
+        <v>255.1939957923466</v>
       </c>
       <c r="L27" t="n">
-        <v>609.7175215011544</v>
+        <v>427.197272257502</v>
       </c>
       <c r="M27" t="n">
-        <v>953.089387221878</v>
+        <v>635.7565146316783</v>
       </c>
       <c r="N27" t="n">
-        <v>1173.004073345182</v>
+        <v>855.6712007549826</v>
       </c>
       <c r="O27" t="n">
-        <v>1365.184030271244</v>
+        <v>1047.851157681044</v>
       </c>
       <c r="P27" t="n">
-        <v>1511.59549676017</v>
+        <v>1194.26262416997</v>
       </c>
       <c r="Q27" t="n">
         <v>1589.250410201877</v>
@@ -6332,25 +6332,25 @@
         <v>1595.910246593565</v>
       </c>
       <c r="S27" t="n">
-        <v>1507.782260686811</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T27" t="n">
-        <v>1352.7504795271</v>
+        <v>1440.878465433854</v>
       </c>
       <c r="U27" t="n">
-        <v>1155.470018218964</v>
+        <v>1243.598004125717</v>
       </c>
       <c r="V27" t="n">
-        <v>1155.470018218964</v>
+        <v>1029.886477118751</v>
       </c>
       <c r="W27" t="n">
-        <v>942.2368499552923</v>
+        <v>816.6533088550794</v>
       </c>
       <c r="X27" t="n">
-        <v>942.2368499552923</v>
+        <v>640.3273269939723</v>
       </c>
       <c r="Y27" t="n">
-        <v>818.9068603838383</v>
+        <v>480.9253673578023</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.41086937301469</v>
+        <v>681.9383273504576</v>
       </c>
       <c r="C28" t="n">
-        <v>70.41086937301469</v>
+        <v>590.2064601965239</v>
       </c>
       <c r="D28" t="n">
-        <v>70.41086937301469</v>
+        <v>590.2064601965239</v>
       </c>
       <c r="E28" t="n">
-        <v>70.41086937301469</v>
+        <v>429.2956450648434</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41086937301469</v>
+        <v>429.2956450648434</v>
       </c>
       <c r="G28" t="n">
-        <v>70.41086937301469</v>
+        <v>262.9417302696151</v>
       </c>
       <c r="H28" t="n">
-        <v>70.41086937301469</v>
+        <v>121.3047641758461</v>
       </c>
       <c r="I28" t="n">
-        <v>31.91820493187129</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="J28" t="n">
-        <v>43.11898427564482</v>
+        <v>43.11898427564481</v>
       </c>
       <c r="K28" t="n">
-        <v>93.47269303262823</v>
+        <v>93.4726930326282</v>
       </c>
       <c r="L28" t="n">
-        <v>483.9990633708262</v>
+        <v>358.3098801792041</v>
       </c>
       <c r="M28" t="n">
-        <v>878.9868494027335</v>
+        <v>753.2976662111114</v>
       </c>
       <c r="N28" t="n">
-        <v>1273.974635434641</v>
+        <v>1148.285452243019</v>
       </c>
       <c r="O28" t="n">
         <v>1532.037324087404</v>
       </c>
       <c r="P28" t="n">
-        <v>1583.082359795869</v>
+        <v>1583.08235979587</v>
       </c>
       <c r="Q28" t="n">
         <v>1595.910246593565</v>
       </c>
       <c r="R28" t="n">
-        <v>1550.946361696807</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="S28" t="n">
-        <v>1380.177730188358</v>
+        <v>1425.141615085116</v>
       </c>
       <c r="T28" t="n">
-        <v>1144.459389812671</v>
+        <v>1189.423274709429</v>
       </c>
       <c r="U28" t="n">
-        <v>861.710141064935</v>
+        <v>906.6740259616929</v>
       </c>
       <c r="V28" t="n">
-        <v>587.824396004457</v>
+        <v>906.6740259616929</v>
       </c>
       <c r="W28" t="n">
-        <v>308.7547315133313</v>
+        <v>906.6740259616929</v>
       </c>
       <c r="X28" t="n">
-        <v>70.41086937301469</v>
+        <v>906.6740259616929</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.41086937301469</v>
+        <v>681.9383273504576</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.91820493187129</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="C29" t="n">
-        <v>31.91820493187129</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="D29" t="n">
-        <v>31.91820493187129</v>
+        <v>1192.902608564887</v>
       </c>
       <c r="E29" t="n">
-        <v>31.91820493187129</v>
+        <v>789.8949705362088</v>
       </c>
       <c r="F29" t="n">
-        <v>31.91820493187129</v>
+        <v>386.8873325075308</v>
       </c>
       <c r="G29" t="n">
-        <v>31.91820493187129</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="H29" t="n">
-        <v>31.91820493187129</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="I29" t="n">
-        <v>31.91820493187129</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="J29" t="n">
-        <v>125.575931449137</v>
+        <v>125.5759314491374</v>
       </c>
       <c r="K29" t="n">
-        <v>286.4936851271277</v>
+        <v>286.4936851271286</v>
       </c>
       <c r="L29" t="n">
-        <v>501.0716014382738</v>
+        <v>501.0716014382745</v>
       </c>
       <c r="M29" t="n">
-        <v>752.657000237449</v>
+        <v>752.6570002374494</v>
       </c>
       <c r="N29" t="n">
         <v>1010.181906207059</v>
@@ -6490,25 +6490,25 @@
         <v>1595.910246593565</v>
       </c>
       <c r="S29" t="n">
-        <v>1506.170903538882</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T29" t="n">
-        <v>1506.170903538882</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="U29" t="n">
-        <v>1506.170903538882</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="V29" t="n">
-        <v>1156.333348875363</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="W29" t="n">
-        <v>772.5730480105317</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="X29" t="n">
-        <v>371.9296501794842</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="Y29" t="n">
-        <v>371.9296501794842</v>
+        <v>1595.910246593565</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>403.3032499712052</v>
+        <v>512.2631297887006</v>
       </c>
       <c r="C30" t="n">
-        <v>269.3081787201509</v>
+        <v>378.2680585376463</v>
       </c>
       <c r="D30" t="n">
-        <v>152.4110209395433</v>
+        <v>261.3709007570387</v>
       </c>
       <c r="E30" t="n">
-        <v>31.91820493187129</v>
+        <v>140.8780847493667</v>
       </c>
       <c r="F30" t="n">
-        <v>31.91820493187129</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="G30" t="n">
-        <v>31.91820493187129</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="H30" t="n">
-        <v>31.91820493187129</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="I30" t="n">
-        <v>31.91820493187129</v>
+        <v>47.66613322630516</v>
       </c>
       <c r="J30" t="n">
-        <v>80.07887720831324</v>
+        <v>339.4952094773804</v>
       </c>
       <c r="K30" t="n">
-        <v>194.0458410613656</v>
+        <v>453.4621733304327</v>
       </c>
       <c r="L30" t="n">
-        <v>366.0491175265211</v>
+        <v>625.4654497955881</v>
       </c>
       <c r="M30" t="n">
-        <v>574.6083599006975</v>
+        <v>834.0246921697644</v>
       </c>
       <c r="N30" t="n">
-        <v>794.5230460240018</v>
+        <v>1053.939378293069</v>
       </c>
       <c r="O30" t="n">
-        <v>986.7030029500638</v>
+        <v>1246.119335219131</v>
       </c>
       <c r="P30" t="n">
-        <v>1133.114469438989</v>
+        <v>1392.530801708056</v>
       </c>
       <c r="Q30" t="n">
-        <v>1528.102255470897</v>
+        <v>1501.280693724896</v>
       </c>
       <c r="R30" t="n">
         <v>1595.910246593565</v>
       </c>
       <c r="S30" t="n">
-        <v>1507.782260686811</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T30" t="n">
-        <v>1352.7504795271</v>
+        <v>1440.878465433854</v>
       </c>
       <c r="U30" t="n">
-        <v>1155.470018218964</v>
+        <v>1243.598004125717</v>
       </c>
       <c r="V30" t="n">
-        <v>941.7584912119974</v>
+        <v>1029.886477118751</v>
       </c>
       <c r="W30" t="n">
-        <v>728.5253229483261</v>
+        <v>816.6533088550794</v>
       </c>
       <c r="X30" t="n">
-        <v>703.0082422429618</v>
+        <v>811.9681220604572</v>
       </c>
       <c r="Y30" t="n">
-        <v>543.6062826067919</v>
+        <v>652.5661624242872</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>121.3047641758461</v>
+        <v>572.5058819001806</v>
       </c>
       <c r="C31" t="n">
-        <v>121.3047641758461</v>
+        <v>401.4125094618971</v>
       </c>
       <c r="D31" t="n">
-        <v>121.3047641758461</v>
+        <v>401.4125094618971</v>
       </c>
       <c r="E31" t="n">
-        <v>121.3047641758461</v>
+        <v>401.4125094618971</v>
       </c>
       <c r="F31" t="n">
-        <v>121.3047641758461</v>
+        <v>236.7813835724884</v>
       </c>
       <c r="G31" t="n">
-        <v>121.3047641758461</v>
+        <v>173.5551710256402</v>
       </c>
       <c r="H31" t="n">
-        <v>121.3047641758461</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="I31" t="n">
-        <v>31.91820493187129</v>
+        <v>31.9182049318713</v>
       </c>
       <c r="J31" t="n">
-        <v>43.11898427564482</v>
+        <v>43.11898427564481</v>
       </c>
       <c r="K31" t="n">
-        <v>93.47269303262823</v>
+        <v>93.4726930326282</v>
       </c>
       <c r="L31" t="n">
-        <v>284.098265904807</v>
+        <v>410.3722261106443</v>
       </c>
       <c r="M31" t="n">
-        <v>366.126222532156</v>
+        <v>492.4001827379932</v>
       </c>
       <c r="N31" t="n">
-        <v>761.1140085640632</v>
+        <v>887.3879687699005</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.865880408449</v>
+        <v>1271.139840614286</v>
       </c>
       <c r="P31" t="n">
-        <v>1456.808399590032</v>
+        <v>1583.08235979587</v>
       </c>
       <c r="Q31" t="n">
         <v>1595.910246593565</v>
       </c>
       <c r="R31" t="n">
-        <v>1550.946361696807</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="S31" t="n">
-        <v>1550.946361696807</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T31" t="n">
-        <v>1550.946361696807</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="U31" t="n">
-        <v>1268.197112949071</v>
+        <v>1313.160997845829</v>
       </c>
       <c r="V31" t="n">
-        <v>994.3113678885927</v>
+        <v>1039.275252785351</v>
       </c>
       <c r="W31" t="n">
-        <v>715.2417033974671</v>
+        <v>760.205588294225</v>
       </c>
       <c r="X31" t="n">
-        <v>476.8978412571504</v>
+        <v>760.205588294225</v>
       </c>
       <c r="Y31" t="n">
-        <v>252.1621426459151</v>
+        <v>760.205588294225</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1540.685113877132</v>
+        <v>792.2592107338392</v>
       </c>
       <c r="C32" t="n">
-        <v>1137.677475848454</v>
+        <v>389.2515727051612</v>
       </c>
       <c r="D32" t="n">
-        <v>1137.677475848454</v>
+        <v>389.2515727051612</v>
       </c>
       <c r="E32" t="n">
-        <v>734.6698378197761</v>
+        <v>389.2515727051612</v>
       </c>
       <c r="F32" t="n">
-        <v>734.6698378197761</v>
+        <v>389.2515727051612</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6621997910981</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="H32" t="n">
-        <v>41.22125104826864</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="I32" t="n">
         <v>31.91820493187129</v>
       </c>
       <c r="J32" t="n">
-        <v>125.5759314491374</v>
+        <v>125.575931449137</v>
       </c>
       <c r="K32" t="n">
-        <v>286.4936851271281</v>
+        <v>286.4936851271277</v>
       </c>
       <c r="L32" t="n">
         <v>501.071601438274</v>
@@ -6718,7 +6718,7 @@
         <v>1247.954591562362</v>
       </c>
       <c r="P32" t="n">
-        <v>1436.915172099741</v>
+        <v>1436.91517209974</v>
       </c>
       <c r="Q32" t="n">
         <v>1559.306736255194</v>
@@ -6727,25 +6727,25 @@
         <v>1595.910246593565</v>
       </c>
       <c r="S32" t="n">
-        <v>1540.685113877132</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T32" t="n">
-        <v>1540.685113877132</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="U32" t="n">
-        <v>1540.685113877132</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="V32" t="n">
-        <v>1540.685113877132</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.685113877132</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="X32" t="n">
-        <v>1540.685113877132</v>
+        <v>1195.266848762517</v>
       </c>
       <c r="Y32" t="n">
-        <v>1540.685113877132</v>
+        <v>1195.266848762517</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>678.6038277482517</v>
+        <v>378.2680585376463</v>
       </c>
       <c r="C33" t="n">
-        <v>544.6087564971973</v>
+        <v>378.2680585376463</v>
       </c>
       <c r="D33" t="n">
-        <v>427.7115987165897</v>
+        <v>261.3709007570387</v>
       </c>
       <c r="E33" t="n">
-        <v>307.2187827089177</v>
+        <v>140.8780847493667</v>
       </c>
       <c r="F33" t="n">
-        <v>198.2589028914223</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="G33" t="n">
-        <v>92.33810342115605</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="H33" t="n">
         <v>31.91820493187129</v>
@@ -6779,25 +6779,25 @@
         <v>47.66613322630516</v>
       </c>
       <c r="J33" t="n">
-        <v>95.82680550274711</v>
+        <v>339.4952094773804</v>
       </c>
       <c r="K33" t="n">
-        <v>490.8145915346543</v>
+        <v>453.4621733304327</v>
       </c>
       <c r="L33" t="n">
-        <v>662.8178679998098</v>
+        <v>625.4654497955883</v>
       </c>
       <c r="M33" t="n">
-        <v>953.089387221878</v>
+        <v>834.0246921697646</v>
       </c>
       <c r="N33" t="n">
-        <v>1173.004073345182</v>
+        <v>1053.939378293069</v>
       </c>
       <c r="O33" t="n">
-        <v>1365.184030271244</v>
+        <v>1246.119335219131</v>
       </c>
       <c r="P33" t="n">
-        <v>1511.59549676017</v>
+        <v>1392.530801708057</v>
       </c>
       <c r="Q33" t="n">
         <v>1589.250410201877</v>
@@ -6806,25 +6806,25 @@
         <v>1595.910246593565</v>
       </c>
       <c r="S33" t="n">
-        <v>1507.782260686811</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T33" t="n">
-        <v>1352.7504795271</v>
+        <v>1478.524189249284</v>
       </c>
       <c r="U33" t="n">
-        <v>1155.470018218964</v>
+        <v>1281.243727941147</v>
       </c>
       <c r="V33" t="n">
-        <v>1155.470018218964</v>
+        <v>1067.532200934181</v>
       </c>
       <c r="W33" t="n">
-        <v>1154.634801881115</v>
+        <v>854.2990326705101</v>
       </c>
       <c r="X33" t="n">
-        <v>978.3088200200083</v>
+        <v>677.9730508094029</v>
       </c>
       <c r="Y33" t="n">
-        <v>818.9068603838383</v>
+        <v>518.571091173233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>906.6740259616929</v>
+        <v>670.4971029362421</v>
       </c>
       <c r="C34" t="n">
-        <v>735.5806535234094</v>
+        <v>499.4037304979586</v>
       </c>
       <c r="D34" t="n">
-        <v>735.5806535234094</v>
+        <v>339.9090858208687</v>
       </c>
       <c r="E34" t="n">
-        <v>593.9267709542521</v>
+        <v>339.9090858208687</v>
       </c>
       <c r="F34" t="n">
-        <v>429.2956450648434</v>
+        <v>339.9090858208687</v>
       </c>
       <c r="G34" t="n">
-        <v>262.9417302696151</v>
+        <v>173.5551710256402</v>
       </c>
       <c r="H34" t="n">
-        <v>121.3047641758461</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="I34" t="n">
         <v>31.91820493187129</v>
       </c>
       <c r="J34" t="n">
-        <v>43.11898427564482</v>
+        <v>43.11898427564481</v>
       </c>
       <c r="K34" t="n">
-        <v>93.47269303262823</v>
+        <v>93.4726930326282</v>
       </c>
       <c r="L34" t="n">
-        <v>286.2131959189892</v>
+        <v>358.309880179204</v>
       </c>
       <c r="M34" t="n">
-        <v>681.2009819508964</v>
+        <v>753.2976662111112</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.188767982804</v>
+        <v>1148.285452243018</v>
       </c>
       <c r="O34" t="n">
-        <v>1144.865880408449</v>
+        <v>1532.037324087404</v>
       </c>
       <c r="P34" t="n">
-        <v>1456.808399590032</v>
+        <v>1583.082359795869</v>
       </c>
       <c r="Q34" t="n">
         <v>1595.910246593565</v>
@@ -6891,19 +6891,19 @@
         <v>1189.423274709429</v>
       </c>
       <c r="U34" t="n">
-        <v>906.6740259616929</v>
+        <v>1189.423274709429</v>
       </c>
       <c r="V34" t="n">
-        <v>906.6740259616929</v>
+        <v>1189.423274709429</v>
       </c>
       <c r="W34" t="n">
-        <v>906.6740259616929</v>
+        <v>1096.540671470603</v>
       </c>
       <c r="X34" t="n">
-        <v>906.6740259616929</v>
+        <v>858.1968093302864</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.6740259616929</v>
+        <v>858.1968093302864</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1192.902608564887</v>
+        <v>837.933480989227</v>
       </c>
       <c r="C35" t="n">
-        <v>847.2365271056245</v>
+        <v>837.933480989227</v>
       </c>
       <c r="D35" t="n">
-        <v>847.2365271056245</v>
+        <v>434.9258429605491</v>
       </c>
       <c r="E35" t="n">
-        <v>444.2288890769466</v>
+        <v>434.9258429605491</v>
       </c>
       <c r="F35" t="n">
-        <v>41.22125104826864</v>
+        <v>31.91820493187128</v>
       </c>
       <c r="G35" t="n">
-        <v>41.22125104826864</v>
+        <v>31.91820493187128</v>
       </c>
       <c r="H35" t="n">
-        <v>41.22125104826864</v>
+        <v>31.91820493187128</v>
       </c>
       <c r="I35" t="n">
-        <v>31.91820493187129</v>
+        <v>31.91820493187128</v>
       </c>
       <c r="J35" t="n">
-        <v>125.5759314491374</v>
+        <v>125.5759314491373</v>
       </c>
       <c r="K35" t="n">
         <v>286.4936851271281</v>
       </c>
       <c r="L35" t="n">
-        <v>501.071601438274</v>
+        <v>501.0716014382735</v>
       </c>
       <c r="M35" t="n">
-        <v>752.6570002374491</v>
+        <v>752.6570002374485</v>
       </c>
       <c r="N35" t="n">
-        <v>1010.181906207059</v>
+        <v>1010.181906207058</v>
       </c>
       <c r="O35" t="n">
         <v>1247.954591562362</v>
       </c>
       <c r="P35" t="n">
-        <v>1436.915172099741</v>
+        <v>1436.91517209974</v>
       </c>
       <c r="Q35" t="n">
         <v>1559.306736255194</v>
       </c>
       <c r="R35" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593564</v>
       </c>
       <c r="S35" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593564</v>
       </c>
       <c r="T35" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593564</v>
       </c>
       <c r="U35" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593564</v>
       </c>
       <c r="V35" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593564</v>
       </c>
       <c r="W35" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593564</v>
       </c>
       <c r="X35" t="n">
-        <v>1595.910246593565</v>
+        <v>1195.266848762517</v>
       </c>
       <c r="Y35" t="n">
-        <v>1595.910246593565</v>
+        <v>837.933480989227</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>509.2240494414715</v>
+        <v>558.1110117405797</v>
       </c>
       <c r="C36" t="n">
-        <v>375.2289781904172</v>
+        <v>424.1159404895253</v>
       </c>
       <c r="D36" t="n">
-        <v>258.3318204098096</v>
+        <v>307.2187827089177</v>
       </c>
       <c r="E36" t="n">
-        <v>137.8390044021376</v>
+        <v>307.2187827089177</v>
       </c>
       <c r="F36" t="n">
-        <v>137.8390044021376</v>
+        <v>198.2589028914223</v>
       </c>
       <c r="G36" t="n">
-        <v>31.91820493187129</v>
+        <v>92.33810342115603</v>
       </c>
       <c r="H36" t="n">
-        <v>31.91820493187129</v>
+        <v>31.91820493187128</v>
       </c>
       <c r="I36" t="n">
-        <v>47.66613322630516</v>
+        <v>31.91820493187128</v>
       </c>
       <c r="J36" t="n">
-        <v>339.4952094773804</v>
+        <v>80.07887720831322</v>
       </c>
       <c r="K36" t="n">
-        <v>453.4621733304328</v>
+        <v>194.0458410613656</v>
       </c>
       <c r="L36" t="n">
-        <v>625.4654497955883</v>
+        <v>366.0491175265211</v>
       </c>
       <c r="M36" t="n">
-        <v>834.0246921697646</v>
+        <v>574.6083599006975</v>
       </c>
       <c r="N36" t="n">
-        <v>1053.939378293069</v>
+        <v>794.5230460240018</v>
       </c>
       <c r="O36" t="n">
-        <v>1246.119335219131</v>
+        <v>986.7030029500637</v>
       </c>
       <c r="P36" t="n">
-        <v>1392.530801708057</v>
+        <v>1133.114469438989</v>
       </c>
       <c r="Q36" t="n">
-        <v>1589.250410201877</v>
+        <v>1501.280693724895</v>
       </c>
       <c r="R36" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593564</v>
       </c>
       <c r="S36" t="n">
-        <v>1595.910246593565</v>
+        <v>1507.782260686811</v>
       </c>
       <c r="T36" t="n">
-        <v>1595.910246593565</v>
+        <v>1461.086681144081</v>
       </c>
       <c r="U36" t="n">
-        <v>1398.629785285428</v>
+        <v>1461.086681144081</v>
       </c>
       <c r="V36" t="n">
-        <v>1198.488191838007</v>
+        <v>1247.375154137115</v>
       </c>
       <c r="W36" t="n">
-        <v>985.2550235743354</v>
+        <v>1034.141985873443</v>
       </c>
       <c r="X36" t="n">
-        <v>808.9290417132281</v>
+        <v>857.8160040123363</v>
       </c>
       <c r="Y36" t="n">
-        <v>649.5270820770581</v>
+        <v>698.4140443761663</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.425603201306</v>
+        <v>754.8375860859326</v>
       </c>
       <c r="C37" t="n">
-        <v>914.3322307630226</v>
+        <v>754.8375860859326</v>
       </c>
       <c r="D37" t="n">
         <v>754.8375860859326</v>
@@ -7092,55 +7092,55 @@
         <v>121.3047641758461</v>
       </c>
       <c r="I37" t="n">
-        <v>31.91820493187129</v>
+        <v>31.91820493187128</v>
       </c>
       <c r="J37" t="n">
-        <v>43.11898427564482</v>
+        <v>43.11898427564481</v>
       </c>
       <c r="K37" t="n">
-        <v>205.2998684463587</v>
+        <v>93.4726930326282</v>
       </c>
       <c r="L37" t="n">
-        <v>595.8262387845567</v>
+        <v>358.3098801792038</v>
       </c>
       <c r="M37" t="n">
-        <v>677.8541954119057</v>
+        <v>753.2976662111109</v>
       </c>
       <c r="N37" t="n">
-        <v>761.1140085640632</v>
+        <v>1148.285452243018</v>
       </c>
       <c r="O37" t="n">
-        <v>1144.865880408449</v>
+        <v>1532.037324087403</v>
       </c>
       <c r="P37" t="n">
-        <v>1456.808399590032</v>
+        <v>1583.082359795869</v>
       </c>
       <c r="Q37" t="n">
-        <v>1595.910246593565</v>
+        <v>1595.910246593564</v>
       </c>
       <c r="R37" t="n">
-        <v>1550.946361696807</v>
+        <v>1550.946361696806</v>
       </c>
       <c r="S37" t="n">
-        <v>1380.177730188358</v>
+        <v>1550.946361696806</v>
       </c>
       <c r="T37" t="n">
-        <v>1144.459389812671</v>
+        <v>1315.22802132112</v>
       </c>
       <c r="U37" t="n">
-        <v>1085.425603201306</v>
+        <v>1258.642949188294</v>
       </c>
       <c r="V37" t="n">
-        <v>1085.425603201306</v>
+        <v>1258.642949188294</v>
       </c>
       <c r="W37" t="n">
-        <v>1085.425603201306</v>
+        <v>979.5732846971679</v>
       </c>
       <c r="X37" t="n">
-        <v>1085.425603201306</v>
+        <v>979.5732846971679</v>
       </c>
       <c r="Y37" t="n">
-        <v>1085.425603201306</v>
+        <v>754.8375860859326</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>41.22125104826864</v>
+        <v>1035.812420167151</v>
       </c>
       <c r="C38" t="n">
-        <v>41.22125104826864</v>
+        <v>1035.812420167151</v>
       </c>
       <c r="D38" t="n">
-        <v>41.22125104826864</v>
+        <v>632.8047821384735</v>
       </c>
       <c r="E38" t="n">
-        <v>41.22125104826864</v>
+        <v>632.8047821384735</v>
       </c>
       <c r="F38" t="n">
-        <v>41.22125104826864</v>
+        <v>632.8047821384735</v>
       </c>
       <c r="G38" t="n">
-        <v>41.22125104826864</v>
+        <v>322.3591536747008</v>
       </c>
       <c r="H38" t="n">
-        <v>41.22125104826864</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="I38" t="n">
         <v>31.91820493187129</v>
       </c>
       <c r="J38" t="n">
-        <v>125.5759314491372</v>
+        <v>125.575931449137</v>
       </c>
       <c r="K38" t="n">
-        <v>286.4936851271279</v>
+        <v>286.4936851271277</v>
       </c>
       <c r="L38" t="n">
-        <v>501.0716014382741</v>
+        <v>501.071601438274</v>
       </c>
       <c r="M38" t="n">
         <v>752.6570002374492</v>
@@ -7192,7 +7192,7 @@
         <v>1247.954591562362</v>
       </c>
       <c r="P38" t="n">
-        <v>1436.915172099741</v>
+        <v>1436.91517209974</v>
       </c>
       <c r="Q38" t="n">
         <v>1559.306736255194</v>
@@ -7201,25 +7201,25 @@
         <v>1595.910246593565</v>
       </c>
       <c r="S38" t="n">
-        <v>1595.910246593565</v>
+        <v>1506.170903538882</v>
       </c>
       <c r="T38" t="n">
-        <v>1432.363112941482</v>
+        <v>1292.713028700967</v>
       </c>
       <c r="U38" t="n">
-        <v>1175.462504407667</v>
+        <v>1035.812420167151</v>
       </c>
       <c r="V38" t="n">
-        <v>825.6249497441476</v>
+        <v>1035.812420167151</v>
       </c>
       <c r="W38" t="n">
-        <v>441.8646488793161</v>
+        <v>1035.812420167151</v>
       </c>
       <c r="X38" t="n">
-        <v>41.22125104826864</v>
+        <v>1035.812420167151</v>
       </c>
       <c r="Y38" t="n">
-        <v>41.22125104826864</v>
+        <v>1035.812420167151</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>452.1902122703133</v>
+        <v>340.6223347222154</v>
       </c>
       <c r="C39" t="n">
-        <v>318.195141019259</v>
+        <v>206.6272634711611</v>
       </c>
       <c r="D39" t="n">
-        <v>201.2979832386515</v>
+        <v>137.8390044021376</v>
       </c>
       <c r="E39" t="n">
-        <v>201.2979832386515</v>
+        <v>137.8390044021376</v>
       </c>
       <c r="F39" t="n">
-        <v>92.33810342115605</v>
+        <v>137.8390044021376</v>
       </c>
       <c r="G39" t="n">
-        <v>92.33810342115605</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="H39" t="n">
         <v>31.91820493187129</v>
@@ -7253,52 +7253,52 @@
         <v>47.66613322630516</v>
       </c>
       <c r="J39" t="n">
-        <v>283.4868046208908</v>
+        <v>339.4952094773804</v>
       </c>
       <c r="K39" t="n">
-        <v>397.4537684739432</v>
+        <v>453.4621733304327</v>
       </c>
       <c r="L39" t="n">
-        <v>569.4570449390988</v>
+        <v>625.4654497955883</v>
       </c>
       <c r="M39" t="n">
-        <v>778.0162873132751</v>
+        <v>834.0246921697646</v>
       </c>
       <c r="N39" t="n">
-        <v>1173.004073345182</v>
+        <v>1053.939378293069</v>
       </c>
       <c r="O39" t="n">
-        <v>1365.184030271244</v>
+        <v>1246.119335219131</v>
       </c>
       <c r="P39" t="n">
-        <v>1511.59549676017</v>
+        <v>1392.530801708057</v>
       </c>
       <c r="Q39" t="n">
-        <v>1589.250410201877</v>
+        <v>1501.280693724896</v>
       </c>
       <c r="R39" t="n">
         <v>1595.910246593565</v>
       </c>
       <c r="S39" t="n">
-        <v>1507.782260686811</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="T39" t="n">
-        <v>1352.7504795271</v>
+        <v>1440.878465433854</v>
       </c>
       <c r="U39" t="n">
-        <v>1155.470018218964</v>
+        <v>1243.598004125717</v>
       </c>
       <c r="V39" t="n">
-        <v>941.7584912119974</v>
+        <v>1029.88647711875</v>
       </c>
       <c r="W39" t="n">
-        <v>928.2211864031772</v>
+        <v>816.6533088550792</v>
       </c>
       <c r="X39" t="n">
-        <v>751.8952045420699</v>
+        <v>640.3273269939721</v>
       </c>
       <c r="Y39" t="n">
-        <v>592.4932449058999</v>
+        <v>480.9253673578021</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>893.4225353327081</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="C40" t="n">
-        <v>722.3291628944246</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="D40" t="n">
-        <v>722.3291628944246</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="E40" t="n">
-        <v>561.4183477627441</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="F40" t="n">
-        <v>396.7872218733354</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="G40" t="n">
-        <v>230.433307078107</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="H40" t="n">
-        <v>88.79634098433806</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="I40" t="n">
         <v>31.91820493187129</v>
       </c>
       <c r="J40" t="n">
-        <v>43.11898427564482</v>
+        <v>43.11898427564481</v>
       </c>
       <c r="K40" t="n">
-        <v>93.47269303262823</v>
+        <v>299.7528866183424</v>
       </c>
       <c r="L40" t="n">
-        <v>358.309880179204</v>
+        <v>690.2792569565403</v>
       </c>
       <c r="M40" t="n">
-        <v>753.2976662111112</v>
+        <v>1085.267042988447</v>
       </c>
       <c r="N40" t="n">
-        <v>1148.285452243018</v>
+        <v>1168.526856140605</v>
       </c>
       <c r="O40" t="n">
-        <v>1532.037324087404</v>
+        <v>1237.20396856625</v>
       </c>
       <c r="P40" t="n">
-        <v>1583.082359795869</v>
+        <v>1456.808399590032</v>
       </c>
       <c r="Q40" t="n">
         <v>1595.910246593565</v>
@@ -7365,19 +7365,19 @@
         <v>1360.191906217878</v>
       </c>
       <c r="U40" t="n">
-        <v>1360.191906217878</v>
+        <v>1235.652881629071</v>
       </c>
       <c r="V40" t="n">
-        <v>1360.191906217878</v>
+        <v>961.7671365685933</v>
       </c>
       <c r="W40" t="n">
-        <v>1081.122241726752</v>
+        <v>682.6974720774676</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.122241726752</v>
+        <v>444.353609937151</v>
       </c>
       <c r="Y40" t="n">
-        <v>1081.122241726752</v>
+        <v>219.6179113259157</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>837.9334809892272</v>
+        <v>1128.374429732057</v>
       </c>
       <c r="C41" t="n">
-        <v>837.9334809892272</v>
+        <v>1128.374429732057</v>
       </c>
       <c r="D41" t="n">
-        <v>837.9334809892272</v>
+        <v>1128.374429732057</v>
       </c>
       <c r="E41" t="n">
-        <v>434.9258429605492</v>
+        <v>725.3667917033788</v>
       </c>
       <c r="F41" t="n">
-        <v>31.91820493187129</v>
+        <v>725.3667917033788</v>
       </c>
       <c r="G41" t="n">
-        <v>31.91820493187129</v>
+        <v>322.3591536747008</v>
       </c>
       <c r="H41" t="n">
         <v>31.91820493187129</v>
@@ -7417,10 +7417,10 @@
         <v>286.4936851271281</v>
       </c>
       <c r="L41" t="n">
-        <v>501.0716014382742</v>
+        <v>501.0716014382738</v>
       </c>
       <c r="M41" t="n">
-        <v>752.6570002374494</v>
+        <v>752.657000237449</v>
       </c>
       <c r="N41" t="n">
         <v>1010.181906207059</v>
@@ -7438,25 +7438,25 @@
         <v>1595.910246593565</v>
       </c>
       <c r="S41" t="n">
-        <v>1595.910246593565</v>
+        <v>1506.170903538882</v>
       </c>
       <c r="T41" t="n">
-        <v>1382.452371755649</v>
+        <v>1292.713028700967</v>
       </c>
       <c r="U41" t="n">
-        <v>1221.693781854059</v>
+        <v>1128.374429732057</v>
       </c>
       <c r="V41" t="n">
-        <v>1221.693781854059</v>
+        <v>1128.374429732057</v>
       </c>
       <c r="W41" t="n">
-        <v>837.9334809892272</v>
+        <v>1128.374429732057</v>
       </c>
       <c r="X41" t="n">
-        <v>837.9334809892272</v>
+        <v>1128.374429732057</v>
       </c>
       <c r="Y41" t="n">
-        <v>837.9334809892272</v>
+        <v>1128.374429732057</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>449.7748101235992</v>
+        <v>392.797381451049</v>
       </c>
       <c r="C42" t="n">
-        <v>315.7797388725449</v>
+        <v>392.797381451049</v>
       </c>
       <c r="D42" t="n">
-        <v>198.8825810919373</v>
+        <v>275.9002236704414</v>
       </c>
       <c r="E42" t="n">
-        <v>78.38976508426529</v>
+        <v>155.4074076627694</v>
       </c>
       <c r="F42" t="n">
-        <v>31.91820493187129</v>
+        <v>46.44752784527395</v>
       </c>
       <c r="G42" t="n">
         <v>31.91820493187129</v>
@@ -7487,28 +7487,28 @@
         <v>31.91820493187129</v>
       </c>
       <c r="I42" t="n">
-        <v>47.66613322630516</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="J42" t="n">
-        <v>95.82680550274711</v>
+        <v>323.7472811829465</v>
       </c>
       <c r="K42" t="n">
-        <v>209.7937693557995</v>
+        <v>437.7142450359989</v>
       </c>
       <c r="L42" t="n">
-        <v>604.7815553877067</v>
+        <v>609.7175215011544</v>
       </c>
       <c r="M42" t="n">
-        <v>813.3407977618831</v>
+        <v>818.2767638753307</v>
       </c>
       <c r="N42" t="n">
-        <v>1033.255483885187</v>
+        <v>1038.191449998635</v>
       </c>
       <c r="O42" t="n">
-        <v>1225.435440811249</v>
+        <v>1230.371406924697</v>
       </c>
       <c r="P42" t="n">
-        <v>1511.59549676017</v>
+        <v>1376.782873413623</v>
       </c>
       <c r="Q42" t="n">
         <v>1589.250410201877</v>
@@ -7523,19 +7523,19 @@
         <v>1352.7504795271</v>
       </c>
       <c r="U42" t="n">
-        <v>1352.7504795271</v>
+        <v>1155.470018218964</v>
       </c>
       <c r="V42" t="n">
-        <v>1139.038952520134</v>
+        <v>941.7584912119974</v>
       </c>
       <c r="W42" t="n">
-        <v>925.805784256463</v>
+        <v>728.5253229483261</v>
       </c>
       <c r="X42" t="n">
-        <v>749.4798023953558</v>
+        <v>552.199341087219</v>
       </c>
       <c r="Y42" t="n">
-        <v>590.0778427591858</v>
+        <v>392.797381451049</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>530.2763072970637</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="C43" t="n">
-        <v>359.1829348587802</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1829348587802</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="E43" t="n">
-        <v>198.2721197270997</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="F43" t="n">
-        <v>198.2721197270997</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="G43" t="n">
         <v>31.91820493187129</v>
@@ -7572,49 +7572,49 @@
         <v>43.11898427564482</v>
       </c>
       <c r="K43" t="n">
-        <v>93.47269303262823</v>
+        <v>207.414798460541</v>
       </c>
       <c r="L43" t="n">
-        <v>483.9990633708262</v>
+        <v>597.941168798739</v>
       </c>
       <c r="M43" t="n">
-        <v>566.0270199981752</v>
+        <v>992.9289548306463</v>
       </c>
       <c r="N43" t="n">
-        <v>961.0148060300824</v>
+        <v>1076.188767982804</v>
       </c>
       <c r="O43" t="n">
-        <v>1344.766677874468</v>
+        <v>1144.865880408449</v>
       </c>
       <c r="P43" t="n">
-        <v>1583.082359795869</v>
+        <v>1456.808399590032</v>
       </c>
       <c r="Q43" t="n">
         <v>1595.910246593565</v>
       </c>
       <c r="R43" t="n">
-        <v>1550.946361696807</v>
+        <v>1595.910246593565</v>
       </c>
       <c r="S43" t="n">
-        <v>1380.177730188358</v>
+        <v>1425.141615085116</v>
       </c>
       <c r="T43" t="n">
-        <v>1380.177730188358</v>
+        <v>1189.423274709429</v>
       </c>
       <c r="U43" t="n">
-        <v>1380.177730188358</v>
+        <v>1189.423274709429</v>
       </c>
       <c r="V43" t="n">
-        <v>1106.29198512788</v>
+        <v>915.537529648951</v>
       </c>
       <c r="W43" t="n">
-        <v>827.2223206367539</v>
+        <v>636.4678651578254</v>
       </c>
       <c r="X43" t="n">
-        <v>588.8784584964374</v>
+        <v>444.353609937151</v>
       </c>
       <c r="Y43" t="n">
-        <v>530.2763072970637</v>
+        <v>219.6179113259157</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>845.4292940989978</v>
+        <v>1339.009638059749</v>
       </c>
       <c r="C44" t="n">
-        <v>845.4292940989978</v>
+        <v>1250.244165134302</v>
       </c>
       <c r="D44" t="n">
-        <v>845.4292940989978</v>
+        <v>847.2365271056245</v>
       </c>
       <c r="E44" t="n">
         <v>444.2288890769466</v>
@@ -7648,10 +7648,10 @@
         <v>31.91820493187129</v>
       </c>
       <c r="J44" t="n">
-        <v>125.5759314491372</v>
+        <v>125.5759314491374</v>
       </c>
       <c r="K44" t="n">
-        <v>286.4936851271279</v>
+        <v>286.4936851271281</v>
       </c>
       <c r="L44" t="n">
         <v>501.0716014382741</v>
@@ -7666,7 +7666,7 @@
         <v>1247.954591562362</v>
       </c>
       <c r="P44" t="n">
-        <v>1436.915172099741</v>
+        <v>1436.91517209974</v>
       </c>
       <c r="Q44" t="n">
         <v>1559.306736255194</v>
@@ -7681,19 +7681,19 @@
         <v>1595.910246593565</v>
       </c>
       <c r="U44" t="n">
-        <v>1595.910246593565</v>
+        <v>1339.009638059749</v>
       </c>
       <c r="V44" t="n">
-        <v>1246.072691930045</v>
+        <v>1339.009638059749</v>
       </c>
       <c r="W44" t="n">
-        <v>1246.072691930045</v>
+        <v>1339.009638059749</v>
       </c>
       <c r="X44" t="n">
-        <v>845.4292940989978</v>
+        <v>1339.009638059749</v>
       </c>
       <c r="Y44" t="n">
-        <v>845.4292940989978</v>
+        <v>1339.009638059749</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>554.3338617291814</v>
+        <v>340.6223347222154</v>
       </c>
       <c r="C45" t="n">
-        <v>420.3387904781271</v>
+        <v>206.6272634711611</v>
       </c>
       <c r="D45" t="n">
-        <v>303.4416326975195</v>
+        <v>137.8390044021376</v>
       </c>
       <c r="E45" t="n">
-        <v>182.9488166898475</v>
+        <v>137.8390044021376</v>
       </c>
       <c r="F45" t="n">
-        <v>73.9889368723521</v>
+        <v>137.8390044021376</v>
       </c>
       <c r="G45" t="n">
-        <v>73.9889368723521</v>
+        <v>31.91820493187129</v>
       </c>
       <c r="H45" t="n">
         <v>31.91820493187129</v>
       </c>
       <c r="I45" t="n">
-        <v>31.91820493187129</v>
+        <v>47.66613322630516</v>
       </c>
       <c r="J45" t="n">
-        <v>323.7472811829465</v>
+        <v>95.82680550274711</v>
       </c>
       <c r="K45" t="n">
-        <v>437.7142450359989</v>
+        <v>209.7937693557995</v>
       </c>
       <c r="L45" t="n">
-        <v>609.7175215011544</v>
+        <v>381.797045820955</v>
       </c>
       <c r="M45" t="n">
-        <v>818.2767638753307</v>
+        <v>590.3562881951314</v>
       </c>
       <c r="N45" t="n">
-        <v>1038.191449998635</v>
+        <v>810.2709743184357</v>
       </c>
       <c r="O45" t="n">
-        <v>1230.371406924697</v>
+        <v>1002.450931244498</v>
       </c>
       <c r="P45" t="n">
-        <v>1376.782873413623</v>
+        <v>1148.862397733423</v>
       </c>
       <c r="Q45" t="n">
-        <v>1589.250410201877</v>
+        <v>1501.280693724896</v>
       </c>
       <c r="R45" t="n">
         <v>1595.910246593565</v>
@@ -7763,16 +7763,16 @@
         <v>1243.598004125717</v>
       </c>
       <c r="V45" t="n">
-        <v>1243.598004125717</v>
+        <v>1029.88647711875</v>
       </c>
       <c r="W45" t="n">
-        <v>1030.364835862045</v>
+        <v>816.6533088550792</v>
       </c>
       <c r="X45" t="n">
-        <v>854.038854000938</v>
+        <v>640.3273269939721</v>
       </c>
       <c r="Y45" t="n">
-        <v>694.6368943647681</v>
+        <v>480.9253673578021</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.996618054792</v>
+        <v>538.6440075638328</v>
       </c>
       <c r="C46" t="n">
-        <v>362.9032456165084</v>
+        <v>367.5506351255493</v>
       </c>
       <c r="D46" t="n">
-        <v>362.9032456165084</v>
+        <v>208.0559904484593</v>
       </c>
       <c r="E46" t="n">
-        <v>362.9032456165084</v>
+        <v>47.14517531677882</v>
       </c>
       <c r="F46" t="n">
-        <v>198.2721197270997</v>
+        <v>47.14517531677882</v>
       </c>
       <c r="G46" t="n">
         <v>31.91820493187129</v>
@@ -7806,25 +7806,25 @@
         <v>31.91820493187129</v>
       </c>
       <c r="J46" t="n">
-        <v>108.1203479069812</v>
+        <v>43.11898427564482</v>
       </c>
       <c r="K46" t="n">
-        <v>158.4740566639646</v>
+        <v>93.47269303262823</v>
       </c>
       <c r="L46" t="n">
-        <v>235.0213157671395</v>
+        <v>358.309880179204</v>
       </c>
       <c r="M46" t="n">
-        <v>630.0091017990467</v>
+        <v>753.2976662111112</v>
       </c>
       <c r="N46" t="n">
-        <v>1024.996887830954</v>
+        <v>1148.285452243018</v>
       </c>
       <c r="O46" t="n">
-        <v>1408.748759675339</v>
+        <v>1532.037324087404</v>
       </c>
       <c r="P46" t="n">
-        <v>1459.793795383805</v>
+        <v>1583.082359795869</v>
       </c>
       <c r="Q46" t="n">
         <v>1595.910246593565</v>
@@ -7842,16 +7842,16 @@
         <v>1189.423274709429</v>
       </c>
       <c r="V46" t="n">
-        <v>997.0761788063439</v>
+        <v>1189.423274709429</v>
       </c>
       <c r="W46" t="n">
-        <v>997.0761788063439</v>
+        <v>1189.423274709429</v>
       </c>
       <c r="X46" t="n">
-        <v>758.7323166660273</v>
+        <v>951.0794125691125</v>
       </c>
       <c r="Y46" t="n">
-        <v>533.996618054792</v>
+        <v>726.3437139578772</v>
       </c>
     </row>
   </sheetData>
@@ -8455,7 +8455,7 @@
         <v>32.32750642064433</v>
       </c>
       <c r="K8" t="n">
-        <v>27.69388552783373</v>
+        <v>27.69388552783374</v>
       </c>
       <c r="L8" t="n">
         <v>19.2605385526292</v>
@@ -8616,7 +8616,7 @@
         <v>27.07747822466578</v>
       </c>
       <c r="L10" t="n">
-        <v>22.41565970901928</v>
+        <v>22.41565970901927</v>
       </c>
       <c r="M10" t="n">
         <v>22.30123629540936</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.858460156831839</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>320.5382551416166</v>
+        <v>31.40906926781109</v>
       </c>
       <c r="R12" t="n">
-        <v>61.76581285957661</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>176.984547477186</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>316.1210398025843</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>157.1923006216379</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>42.35857707193719</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>251.0871914575574</v>
+        <v>61.76581285957673</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>320.5382551416166</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>316.1210398025842</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>187.9179693819473</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>318.2573327462026</v>
+        <v>157.1923006216377</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>3.858460156831839</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>157.0671896509389</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>225.2368783502545</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>251.0871914575575</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.45157879473183</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,16 +9324,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>242.780074722062</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>314.8767402825757</v>
+        <v>221.7435283465053</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
@@ -9342,7 +9342,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>3.858460156831846</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>136.1743670167149</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>320.5382551416167</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>61.7658128595771</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>115.2306199686915</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>316.1210398025842</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>314.8767402825757</v>
       </c>
       <c r="O22" t="n">
-        <v>242.6424905391418</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.76545843403778</v>
+        <v>3.858460156831846</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>61.76581285957615</v>
       </c>
       <c r="K24" t="n">
-        <v>277.5387702522884</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>320.5382551416163</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9807,13 +9807,13 @@
         <v>316.1210398025841</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>314.8767402825755</v>
       </c>
       <c r="O25" t="n">
-        <v>176.9845474771855</v>
+        <v>191.298561845574</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.858460156831846</v>
+        <v>3.858460156831853</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>61.76581285957683</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>136.1743670167144</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>320.5382551416164</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10038,16 +10038,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>317.1506174091142</v>
+        <v>190.1918465084859</v>
       </c>
       <c r="M28" t="n">
-        <v>316.1210398025841</v>
+        <v>316.1210398025842</v>
       </c>
       <c r="N28" t="n">
-        <v>314.8767402825755</v>
+        <v>314.8767402825756</v>
       </c>
       <c r="O28" t="n">
-        <v>191.2985618455741</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.858460156831846</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>320.5382551416163</v>
+        <v>31.40906926781089</v>
       </c>
       <c r="R30" t="n">
-        <v>61.76581285957618</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>115.2306199686908</v>
+        <v>242.7800747220619</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>314.8767402825755</v>
+        <v>314.8767402825756</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
@@ -10290,7 +10290,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>283.8594163422777</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>82.53765338170894</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>120.2673687395086</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10512,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>117.3669129123092</v>
+        <v>190.1918465084857</v>
       </c>
       <c r="M34" t="n">
-        <v>316.1210398025841</v>
+        <v>316.1210398025842</v>
       </c>
       <c r="N34" t="n">
         <v>314.8767402825755</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.76545843403778</v>
+        <v>3.858460156831846</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>120.2673687395085</v>
+        <v>293.4457685294943</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>112.956742842152</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>190.1918465084856</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>316.1210398025841</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>314.8767402825754</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>189.5555546647917</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>176.8415150591949</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>31.40906926781044</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>190.1918465084856</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>316.1210398025841</v>
+        <v>316.1210398025842</v>
       </c>
       <c r="N40" t="n">
-        <v>314.8767402825755</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>170.2620154700172</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.76545843403778</v>
+        <v>3.858460156831846</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>225.2368783502543</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>141.1601913737323</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>136.1743670167145</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>115.0930357857705</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>316.1210398025841</v>
       </c>
       <c r="N43" t="n">
-        <v>314.8767402825755</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>189.1622689019555</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.858460156831846</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1743670167145</v>
+        <v>277.5387702522885</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>190.1918465084856</v>
       </c>
       <c r="M46" t="n">
         <v>316.1210398025841</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>124.5339034465298</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.187341607988441</v>
+        <v>4.187341607988458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>11.21925167988081</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -23278,7 +23278,7 @@
         <v>287.5365392554012</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9.210015655233377</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.84194962413538</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>192.0073376468877</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3316024484771</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>290.6941354079976</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,13 +23345,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>76.41378793894887</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>89.47772206115596</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>87.24670604768559</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6903756472761</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2205964328313</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.51424604779014</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>169.0609451933647</v>
       </c>
       <c r="T13" t="n">
         <v>233.3611569719296</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9217562602587</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>227.1966149116545</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>116.506445238045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>1.441728959478667</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.662446583498</v>
+        <v>3.684884935106595</v>
       </c>
       <c r="H14" t="n">
         <v>287.5365392554012</v>
       </c>
       <c r="I14" t="n">
-        <v>9.210015655233377</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.84194962413538</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>40.20161811874101</v>
+        <v>211.3232960895365</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>378.8365739571253</v>
       </c>
     </row>
     <row r="15">
@@ -23579,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>89.82862380098157</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>39.76990454098625</v>
       </c>
       <c r="G15" t="n">
-        <v>104.8615914755636</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.8156995043919</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>87.24670604768559</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.51424604779014</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>86.76045486937771</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>147.7149715333716</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23743,13 +23743,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>348.5463577586925</v>
       </c>
       <c r="G17" t="n">
-        <v>402.662446583498</v>
+        <v>3.684884935106595</v>
       </c>
       <c r="H17" t="n">
-        <v>287.5365392554012</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>9.210015655233377</v>
@@ -23785,16 +23785,16 @@
         <v>88.84194962413538</v>
       </c>
       <c r="T17" t="n">
-        <v>182.7973219916545</v>
+        <v>211.3232960895365</v>
       </c>
       <c r="U17" t="n">
         <v>254.3316024484771</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>34.56507509288468</v>
+        <v>62.05410609649896</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.8615914755636</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.8156995043919</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>87.24670604768559</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23901,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>67.20009441537968</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6903756472761</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.105278293717106</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>88.49269365153503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>7.045783131471296</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>1.44172895947878</v>
+        <v>1.44172895947861</v>
       </c>
       <c r="E20" t="n">
-        <v>56.72712170136867</v>
+        <v>11.21925167988081</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -23989,7 +23989,7 @@
         <v>287.5365392554012</v>
       </c>
       <c r="I20" t="n">
-        <v>9.210015655233377</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>88.84194962413538</v>
       </c>
       <c r="T20" t="n">
-        <v>211.3232960895365</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3316024484771</v>
+        <v>104.3906141011354</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24050,22 +24050,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>104.8615914755636</v>
       </c>
       <c r="H21" t="n">
-        <v>12.09743571751366</v>
+        <v>59.8156995043919</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>61.86343646844932</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3076566950555</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>70.93367109094729</v>
       </c>
       <c r="D22" t="n">
-        <v>17.04768644372891</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6903756472761</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2205964328313</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.51424604779014</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>169.0609451933647</v>
@@ -24189,7 +24189,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>7.141406219453415</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>7.04578313147141</v>
       </c>
       <c r="D23" t="n">
-        <v>1.441728959478894</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>11.2192516798811</v>
@@ -24220,10 +24220,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.662446583498</v>
+        <v>51.24301028359525</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>287.5365392554012</v>
       </c>
       <c r="I23" t="n">
         <v>9.210015655233377</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>88.84194962413538</v>
       </c>
       <c r="T23" t="n">
         <v>211.3232960895365</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>22.90879725263352</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24290,19 +24290,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>62.05410609649983</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>104.8615914755636</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>59.8156995043919</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,19 +24335,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>87.24670604768559</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3076566950555</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>14.9663157115094</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>164.6903756472761</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2205964328313</v>
       </c>
       <c r="I25" t="n">
-        <v>72.50617413740996</v>
+        <v>88.49269365153505</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.51424604779014</v>
       </c>
       <c r="S25" t="n">
         <v>169.0609451933647</v>
@@ -24420,19 +24420,19 @@
         <v>233.3611569719296</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9217562602587</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>127.1742169403934</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.141406219453415</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24451,19 +24451,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>11.2192516798811</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>17.8425462774581</v>
       </c>
       <c r="G26" t="n">
-        <v>209.9279238416246</v>
+        <v>3.684884935106766</v>
       </c>
       <c r="H26" t="n">
-        <v>287.5365392554012</v>
+        <v>12.00445550035414</v>
       </c>
       <c r="I26" t="n">
-        <v>9.210015655233377</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.84194962413538</v>
+        <v>88.8419496241354</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3316024484771</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>62.0541060964996</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>104.8615914755636</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>59.8156995043919</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>87.24670604768559</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.71125036406882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>78.56789023150635</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6903756472761</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2205964328313</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>50.38495585480308</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.51424604779015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69.50763707270778</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>1.441728959478837</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>11.21925167988104</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>17.8425462774581</v>
       </c>
       <c r="G29" t="n">
-        <v>402.662446583498</v>
+        <v>51.24301028359508</v>
       </c>
       <c r="H29" t="n">
         <v>287.5365392554012</v>
       </c>
       <c r="I29" t="n">
-        <v>9.210015655233377</v>
+        <v>9.210015655233406</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>88.8419496241354</v>
       </c>
       <c r="T29" t="n">
         <v>211.3232960895365</v>
@@ -24739,13 +24739,13 @@
         <v>254.3316024484771</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>104.8615914755636</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>87.24670604768559</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>149.3008121441855</v>
+        <v>169.9243871158201</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.27390464473561</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24849,16 +24849,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.6903756472761</v>
+        <v>102.0964252258964</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2205964328313</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.49269365153505</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.51424604779015</v>
       </c>
       <c r="S31" t="n">
         <v>169.0609451933647</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>7.141406219453415</v>
       </c>
       <c r="C32" t="n">
         <v>7.04578313147141</v>
@@ -24925,19 +24925,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>11.2192516798811</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>3.684884935106844</v>
+        <v>48.90241248794098</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>287.5365392554012</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9.210015655233391</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.16906823486728</v>
+        <v>88.8419496241354</v>
       </c>
       <c r="T32" t="n">
         <v>211.3232960895365</v>
@@ -24982,7 +24982,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.8615914755636</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>59.8156995043919</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,19 +25046,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>87.24670604768559</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>37.26926657727644</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>210.2739724065649</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>19.064363236898</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.49269365153505</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.51424604779014</v>
+        <v>44.51424604779015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9217562602587</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>184.3251906397766</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.141406219453415</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>63.81392413519313</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>1.441728959479008</v>
       </c>
       <c r="E35" t="n">
-        <v>11.2192516798811</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>17.84254627745815</v>
+        <v>17.84254627745827</v>
       </c>
       <c r="G35" t="n">
         <v>402.662446583498</v>
@@ -25174,7 +25174,7 @@
         <v>287.5365392554012</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>9.210015655233391</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.84194962413538</v>
+        <v>88.8419496241354</v>
       </c>
       <c r="T35" t="n">
         <v>211.3232960895365</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>43.16727222583398</v>
       </c>
     </row>
     <row r="36">
@@ -25241,16 +25241,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.8156995043919</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>87.24670604768559</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>153.4814633481139</v>
+        <v>107.2528396008112</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>195.3076566950555</v>
       </c>
       <c r="V36" t="n">
-        <v>13.43423422394955</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>169.0609451933647</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>221.4783075150074</v>
+        <v>223.9025348487607</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>1.441728959478894</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25405,13 +25405,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.662446583498</v>
+        <v>95.32127440436307</v>
       </c>
       <c r="H38" t="n">
-        <v>287.5365392554012</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>9.210015655233391</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.84194962413538</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.41163377397504</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25475,19 +25475,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>47.62780972446816</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.8615914755636</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.8156995043919</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>87.24670604768559</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>197.6989048203025</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6903756472761</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2205964328313</v>
       </c>
       <c r="I40" t="n">
-        <v>32.18333895959295</v>
+        <v>88.49269365153505</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.51424604779014</v>
+        <v>44.51424604779015</v>
       </c>
       <c r="S40" t="n">
         <v>169.0609451933647</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9217562602587</v>
+        <v>156.62812191734</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,13 +25639,13 @@
         <v>11.2192516798811</v>
       </c>
       <c r="F41" t="n">
-        <v>17.84254627745815</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.662446583498</v>
+        <v>3.684884935106822</v>
       </c>
       <c r="H41" t="n">
-        <v>287.5365392554012</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>9.210015655233377</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.84194962413538</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>95.18059844590273</v>
+        <v>91.63638946925624</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>61.8634364684504</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.8615914755636</v>
+        <v>90.47756179129497</v>
       </c>
       <c r="H42" t="n">
         <v>59.8156995043919</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3076566950555</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6903756472761</v>
       </c>
       <c r="H43" t="n">
         <v>140.2205964328313</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.51424604779014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3611569719296</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9217562602587</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>45.7673108504458</v>
       </c>
       <c r="Y43" t="n">
-        <v>164.472211937743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>318.1455265836702</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>1.441728959478894</v>
       </c>
       <c r="E44" t="n">
-        <v>13.00841235644151</v>
+        <v>11.2192516798811</v>
       </c>
       <c r="F44" t="n">
         <v>17.84254627745815</v>
@@ -25921,16 +25921,16 @@
         <v>211.3232960895365</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3316024484771</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25949,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>47.62780972446816</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.8615914755636</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>18.1656748833159</v>
+        <v>59.8156995043919</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>149.6156749662176</v>
       </c>
       <c r="H46" t="n">
         <v>140.2205964328313</v>
@@ -26082,7 +26082,7 @@
         <v>279.9217562602587</v>
       </c>
       <c r="V46" t="n">
-        <v>80.72326266581899</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>380874.1215528715</v>
+        <v>380874.1215528716</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>380874.1215528716</v>
+        <v>380874.1215528717</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>380874.1215528716</v>
+        <v>380874.1215528715</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>380874.1215528715</v>
+        <v>380874.1215528714</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>380874.1215528715</v>
+        <v>380874.1215528714</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>453632.0664308019</v>
       </c>
       <c r="C2" t="n">
-        <v>453632.0664308018</v>
+        <v>453632.0664308019</v>
       </c>
       <c r="D2" t="n">
-        <v>453633.7026294561</v>
+        <v>453633.7026294559</v>
       </c>
       <c r="E2" t="n">
         <v>237885.4076886273</v>
@@ -26334,16 +26334,16 @@
         <v>237885.4076886273</v>
       </c>
       <c r="I2" t="n">
+        <v>237885.407688627</v>
+      </c>
+      <c r="J2" t="n">
+        <v>237885.4076886272</v>
+      </c>
+      <c r="K2" t="n">
         <v>237885.4076886271</v>
       </c>
-      <c r="J2" t="n">
-        <v>237885.4076886271</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>237885.4076886272</v>
-      </c>
-      <c r="L2" t="n">
-        <v>237885.4076886271</v>
       </c>
       <c r="M2" t="n">
         <v>237885.4076886271</v>
@@ -26355,7 +26355,7 @@
         <v>237885.4076886271</v>
       </c>
       <c r="P2" t="n">
-        <v>237885.407688627</v>
+        <v>237885.4076886271</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99426.80427302571</v>
+        <v>99426.80427302574</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330187.5368209981</v>
+        <v>330187.5368209982</v>
       </c>
       <c r="C4" t="n">
         <v>330187.5368209981</v>
@@ -26426,31 +26426,31 @@
         <v>328004.1882999206</v>
       </c>
       <c r="E4" t="n">
-        <v>24391.984017026</v>
+        <v>24391.98401702601</v>
       </c>
       <c r="F4" t="n">
-        <v>24391.98401702599</v>
+        <v>24391.98401702601</v>
       </c>
       <c r="G4" t="n">
         <v>24391.98401702601</v>
       </c>
       <c r="H4" t="n">
-        <v>24391.98401702599</v>
+        <v>24391.98401702602</v>
       </c>
       <c r="I4" t="n">
-        <v>24391.98401702597</v>
+        <v>24391.98401702598</v>
       </c>
       <c r="J4" t="n">
-        <v>24391.98401702598</v>
+        <v>24391.984017026</v>
       </c>
       <c r="K4" t="n">
-        <v>24391.98401702598</v>
+        <v>24391.984017026</v>
       </c>
       <c r="L4" t="n">
         <v>24391.98401702598</v>
       </c>
       <c r="M4" t="n">
-        <v>24391.98401702598</v>
+        <v>24391.98401702597</v>
       </c>
       <c r="N4" t="n">
         <v>24391.98401702598</v>
@@ -26478,16 +26478,16 @@
         <v>36246.92010144652</v>
       </c>
       <c r="E5" t="n">
+        <v>34987.04315328118</v>
+      </c>
+      <c r="F5" t="n">
         <v>34987.04315328117</v>
       </c>
-      <c r="F5" t="n">
-        <v>34987.04315328116</v>
-      </c>
       <c r="G5" t="n">
-        <v>34987.04315328116</v>
+        <v>34987.04315328117</v>
       </c>
       <c r="H5" t="n">
-        <v>34987.04315328116</v>
+        <v>34987.04315328118</v>
       </c>
       <c r="I5" t="n">
         <v>34987.04315328116</v>
@@ -26502,7 +26502,7 @@
         <v>34987.04315328116</v>
       </c>
       <c r="M5" t="n">
-        <v>34987.04315328116</v>
+        <v>34987.04315328115</v>
       </c>
       <c r="N5" t="n">
         <v>34987.04315328116</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21384.79890306626</v>
+        <v>-21393.50831042375</v>
       </c>
       <c r="C6" t="n">
-        <v>87356.84669880028</v>
+        <v>87348.13729144295</v>
       </c>
       <c r="D6" t="n">
-        <v>83126.95389707165</v>
+        <v>83118.25033328061</v>
       </c>
       <c r="E6" t="n">
-        <v>-239496.0459837242</v>
+        <v>-240275.2791723036</v>
       </c>
       <c r="F6" t="n">
-        <v>178506.3805183201</v>
+        <v>177727.1473297406</v>
       </c>
       <c r="G6" t="n">
-        <v>178506.38051832</v>
+        <v>177727.1473297406</v>
       </c>
       <c r="H6" t="n">
-        <v>178506.3805183201</v>
+        <v>177727.1473297406</v>
       </c>
       <c r="I6" t="n">
-        <v>178506.38051832</v>
+        <v>177727.1473297405</v>
       </c>
       <c r="J6" t="n">
-        <v>178506.38051832</v>
+        <v>177727.1473297405</v>
       </c>
       <c r="K6" t="n">
-        <v>178506.38051832</v>
+        <v>177727.1473297405</v>
       </c>
       <c r="L6" t="n">
-        <v>178506.38051832</v>
+        <v>177727.1473297406</v>
       </c>
       <c r="M6" t="n">
-        <v>79079.57624529424</v>
+        <v>78300.3430567148</v>
       </c>
       <c r="N6" t="n">
-        <v>178506.38051832</v>
+        <v>177727.1473297405</v>
       </c>
       <c r="O6" t="n">
-        <v>178506.38051832</v>
+        <v>177727.1473297405</v>
       </c>
       <c r="P6" t="n">
-        <v>178506.3805183199</v>
+        <v>177727.1473297405</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>492.1654772962834</v>
       </c>
       <c r="G3" t="n">
-        <v>492.1654772962833</v>
+        <v>492.1654772962834</v>
       </c>
       <c r="H3" t="n">
         <v>492.1654772962833</v>
@@ -26761,10 +26761,10 @@
         <v>492.1654772962833</v>
       </c>
       <c r="J3" t="n">
-        <v>492.1654772962833</v>
+        <v>492.1654772962832</v>
       </c>
       <c r="K3" t="n">
-        <v>492.1654772962833</v>
+        <v>492.1654772962832</v>
       </c>
       <c r="L3" t="n">
         <v>492.1654772962833</v>
@@ -26801,28 +26801,28 @@
         <v>398.9775616483914</v>
       </c>
       <c r="F4" t="n">
-        <v>398.9775616483913</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="G4" t="n">
-        <v>398.9775616483913</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="H4" t="n">
-        <v>398.9775616483913</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="I4" t="n">
         <v>398.9775616483911</v>
       </c>
       <c r="J4" t="n">
-        <v>398.9775616483911</v>
+        <v>398.9775616483912</v>
       </c>
       <c r="K4" t="n">
-        <v>398.9775616483911</v>
+        <v>398.9775616483912</v>
       </c>
       <c r="L4" t="n">
         <v>398.9775616483911</v>
       </c>
       <c r="M4" t="n">
-        <v>398.9775616483911</v>
+        <v>398.977561648391</v>
       </c>
       <c r="N4" t="n">
         <v>398.9775616483911</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.9775616483913</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31521,13 +31521,13 @@
         <v>4.946772760857344</v>
       </c>
       <c r="I8" t="n">
-        <v>18.62179488470185</v>
+        <v>18.62179488470186</v>
       </c>
       <c r="J8" t="n">
         <v>40.99608491266361</v>
       </c>
       <c r="K8" t="n">
-        <v>61.4425041453834</v>
+        <v>61.44250414538339</v>
       </c>
       <c r="L8" t="n">
         <v>76.22485951021562</v>
@@ -31600,7 +31600,7 @@
         <v>2.495993968922122</v>
       </c>
       <c r="I9" t="n">
-        <v>8.898071142615191</v>
+        <v>8.898071142615192</v>
       </c>
       <c r="J9" t="n">
         <v>24.41698732268457</v>
@@ -31709,10 +31709,10 @@
         <v>9.742184705786196</v>
       </c>
       <c r="S10" t="n">
-        <v>3.775933700160156</v>
+        <v>3.775933700160157</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9257636093246082</v>
+        <v>0.9257636093246081</v>
       </c>
       <c r="U10" t="n">
         <v>0.01181825884244182</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.978554682598122</v>
+        <v>1.978554682598123</v>
       </c>
       <c r="H17" t="n">
-        <v>20.26287314315802</v>
+        <v>20.26287314315803</v>
       </c>
       <c r="I17" t="n">
         <v>76.27822940086419</v>
@@ -32247,16 +32247,16 @@
         <v>347.4168899107578</v>
       </c>
       <c r="N17" t="n">
-        <v>353.0384584026897</v>
+        <v>353.0384584026898</v>
       </c>
       <c r="O17" t="n">
-        <v>333.3642052776046</v>
+        <v>333.3642052776047</v>
       </c>
       <c r="P17" t="n">
-        <v>284.5186365509634</v>
+        <v>284.5186365509635</v>
       </c>
       <c r="Q17" t="n">
-        <v>213.6616469804181</v>
+        <v>213.6616469804182</v>
       </c>
       <c r="R17" t="n">
         <v>124.2853855807544</v>
@@ -32265,10 +32265,10 @@
         <v>45.08631482970476</v>
       </c>
       <c r="T17" t="n">
-        <v>8.661123123073285</v>
+        <v>8.661123123073287</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1582843746078497</v>
+        <v>0.1582843746078498</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>10.22404133024921</v>
       </c>
       <c r="I18" t="n">
-        <v>36.44810374316815</v>
+        <v>36.44810374316816</v>
       </c>
       <c r="J18" t="n">
-        <v>100.0163825135777</v>
+        <v>100.0163825135778</v>
       </c>
       <c r="K18" t="n">
         <v>170.9439280907289</v>
       </c>
       <c r="L18" t="n">
-        <v>229.8552071089859</v>
+        <v>229.855207108986</v>
       </c>
       <c r="M18" t="n">
         <v>268.2301851264744</v>
@@ -32338,16 +32338,16 @@
         <v>135.1319250116135</v>
       </c>
       <c r="R18" t="n">
-        <v>65.7273065717565</v>
+        <v>65.72730657175651</v>
       </c>
       <c r="S18" t="n">
         <v>19.66340373914867</v>
       </c>
       <c r="T18" t="n">
-        <v>4.266981826747964</v>
+        <v>4.266981826747965</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06964605810796465</v>
+        <v>0.06964605810796466</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8875115164359206</v>
+        <v>0.8875115164359207</v>
       </c>
       <c r="H19" t="n">
-        <v>7.890784209766646</v>
+        <v>7.890784209766647</v>
       </c>
       <c r="I19" t="n">
         <v>26.68989178518206</v>
@@ -32414,7 +32414,7 @@
         <v>107.340483769668</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.31698707173878</v>
+        <v>74.31698707173879</v>
       </c>
       <c r="R19" t="n">
         <v>39.90574509356421</v>
@@ -32423,7 +32423,7 @@
         <v>15.46690524552418</v>
       </c>
       <c r="T19" t="n">
-        <v>3.792094661135296</v>
+        <v>3.792094661135297</v>
       </c>
       <c r="U19" t="n">
         <v>0.048409719078323</v>
@@ -32943,19 +32943,19 @@
         <v>20.26287314315802</v>
       </c>
       <c r="I26" t="n">
-        <v>76.27822940086419</v>
+        <v>76.27822940086416</v>
       </c>
       <c r="J26" t="n">
         <v>167.9273554921625</v>
       </c>
       <c r="K26" t="n">
-        <v>251.6795752065411</v>
+        <v>251.679575206541</v>
       </c>
       <c r="L26" t="n">
-        <v>312.2307680741035</v>
+        <v>312.2307680741034</v>
       </c>
       <c r="M26" t="n">
-        <v>347.4168899107578</v>
+        <v>347.4168899107577</v>
       </c>
       <c r="N26" t="n">
         <v>353.0384584026897</v>
@@ -32973,10 +32973,10 @@
         <v>124.2853855807544</v>
       </c>
       <c r="S26" t="n">
-        <v>45.08631482970476</v>
+        <v>45.08631482970475</v>
       </c>
       <c r="T26" t="n">
-        <v>8.661123123073285</v>
+        <v>8.661123123073283</v>
       </c>
       <c r="U26" t="n">
         <v>0.1582843746078497</v>
@@ -33034,13 +33034,13 @@
         <v>229.8552071089859</v>
       </c>
       <c r="M27" t="n">
-        <v>268.2301851264744</v>
+        <v>268.2301851264743</v>
       </c>
       <c r="N27" t="n">
-        <v>275.3294399829463</v>
+        <v>275.3294399829462</v>
       </c>
       <c r="O27" t="n">
-        <v>251.8726476121838</v>
+        <v>251.8726476121837</v>
       </c>
       <c r="P27" t="n">
         <v>202.1500051936376</v>
@@ -33049,16 +33049,16 @@
         <v>135.1319250116135</v>
       </c>
       <c r="R27" t="n">
-        <v>65.7273065717565</v>
+        <v>65.72730657175649</v>
       </c>
       <c r="S27" t="n">
-        <v>19.66340373914867</v>
+        <v>19.66340373914866</v>
       </c>
       <c r="T27" t="n">
-        <v>4.266981826747964</v>
+        <v>4.266981826747963</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06964605810796465</v>
+        <v>0.06964605810796463</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8875115164359206</v>
+        <v>0.8875115164359204</v>
       </c>
       <c r="H28" t="n">
-        <v>7.890784209766646</v>
+        <v>7.890784209766644</v>
       </c>
       <c r="I28" t="n">
-        <v>26.68989178518206</v>
+        <v>26.68989178518205</v>
       </c>
       <c r="J28" t="n">
-        <v>62.74706421201959</v>
+        <v>62.74706421201957</v>
       </c>
       <c r="K28" t="n">
-        <v>103.1127016368279</v>
+        <v>103.1127016368278</v>
       </c>
       <c r="L28" t="n">
-        <v>131.9487576344823</v>
+        <v>131.9487576344822</v>
       </c>
       <c r="M28" t="n">
-        <v>139.1214643445871</v>
+        <v>139.121464344587</v>
       </c>
       <c r="N28" t="n">
         <v>135.8134668742351</v>
@@ -33125,19 +33125,19 @@
         <v>107.340483769668</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.31698707173878</v>
+        <v>74.31698707173877</v>
       </c>
       <c r="R28" t="n">
-        <v>39.90574509356421</v>
+        <v>39.90574509356419</v>
       </c>
       <c r="S28" t="n">
-        <v>15.46690524552418</v>
+        <v>15.46690524552417</v>
       </c>
       <c r="T28" t="n">
-        <v>3.792094661135296</v>
+        <v>3.792094661135295</v>
       </c>
       <c r="U28" t="n">
-        <v>0.048409719078323</v>
+        <v>0.04840971907832299</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,19 +33180,19 @@
         <v>20.26287314315802</v>
       </c>
       <c r="I29" t="n">
-        <v>76.27822940086419</v>
+        <v>76.27822940086416</v>
       </c>
       <c r="J29" t="n">
         <v>167.9273554921625</v>
       </c>
       <c r="K29" t="n">
-        <v>251.6795752065411</v>
+        <v>251.679575206541</v>
       </c>
       <c r="L29" t="n">
-        <v>312.2307680741035</v>
+        <v>312.2307680741034</v>
       </c>
       <c r="M29" t="n">
-        <v>347.4168899107578</v>
+        <v>347.4168899107577</v>
       </c>
       <c r="N29" t="n">
         <v>353.0384584026897</v>
@@ -33210,10 +33210,10 @@
         <v>124.2853855807544</v>
       </c>
       <c r="S29" t="n">
-        <v>45.08631482970476</v>
+        <v>45.08631482970475</v>
       </c>
       <c r="T29" t="n">
-        <v>8.661123123073285</v>
+        <v>8.661123123073283</v>
       </c>
       <c r="U29" t="n">
         <v>0.1582843746078497</v>
@@ -33271,13 +33271,13 @@
         <v>229.8552071089859</v>
       </c>
       <c r="M30" t="n">
-        <v>268.2301851264744</v>
+        <v>268.2301851264743</v>
       </c>
       <c r="N30" t="n">
-        <v>275.3294399829463</v>
+        <v>275.3294399829462</v>
       </c>
       <c r="O30" t="n">
-        <v>251.8726476121838</v>
+        <v>251.8726476121837</v>
       </c>
       <c r="P30" t="n">
         <v>202.1500051936376</v>
@@ -33286,16 +33286,16 @@
         <v>135.1319250116135</v>
       </c>
       <c r="R30" t="n">
-        <v>65.7273065717565</v>
+        <v>65.72730657175649</v>
       </c>
       <c r="S30" t="n">
-        <v>19.66340373914867</v>
+        <v>19.66340373914866</v>
       </c>
       <c r="T30" t="n">
-        <v>4.266981826747964</v>
+        <v>4.266981826747963</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06964605810796465</v>
+        <v>0.06964605810796463</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8875115164359206</v>
+        <v>0.8875115164359204</v>
       </c>
       <c r="H31" t="n">
-        <v>7.890784209766646</v>
+        <v>7.890784209766644</v>
       </c>
       <c r="I31" t="n">
-        <v>26.68989178518206</v>
+        <v>26.68989178518205</v>
       </c>
       <c r="J31" t="n">
-        <v>62.74706421201959</v>
+        <v>62.74706421201957</v>
       </c>
       <c r="K31" t="n">
-        <v>103.1127016368279</v>
+        <v>103.1127016368278</v>
       </c>
       <c r="L31" t="n">
-        <v>131.9487576344823</v>
+        <v>131.9487576344822</v>
       </c>
       <c r="M31" t="n">
-        <v>139.1214643445871</v>
+        <v>139.121464344587</v>
       </c>
       <c r="N31" t="n">
         <v>135.8134668742351</v>
@@ -33362,19 +33362,19 @@
         <v>107.340483769668</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.31698707173878</v>
+        <v>74.31698707173877</v>
       </c>
       <c r="R31" t="n">
-        <v>39.90574509356421</v>
+        <v>39.90574509356419</v>
       </c>
       <c r="S31" t="n">
-        <v>15.46690524552418</v>
+        <v>15.46690524552417</v>
       </c>
       <c r="T31" t="n">
-        <v>3.792094661135296</v>
+        <v>3.792094661135295</v>
       </c>
       <c r="U31" t="n">
-        <v>0.048409719078323</v>
+        <v>0.04840971907832299</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>20.26287314315802</v>
       </c>
       <c r="I32" t="n">
-        <v>76.27822940086419</v>
+        <v>76.27822940086418</v>
       </c>
       <c r="J32" t="n">
         <v>167.9273554921625</v>
@@ -33426,7 +33426,7 @@
         <v>251.6795752065411</v>
       </c>
       <c r="L32" t="n">
-        <v>312.2307680741035</v>
+        <v>312.2307680741034</v>
       </c>
       <c r="M32" t="n">
         <v>347.4168899107578</v>
@@ -33447,7 +33447,7 @@
         <v>124.2853855807544</v>
       </c>
       <c r="S32" t="n">
-        <v>45.08631482970476</v>
+        <v>45.08631482970475</v>
       </c>
       <c r="T32" t="n">
         <v>8.661123123073285</v>
@@ -33508,7 +33508,7 @@
         <v>229.8552071089859</v>
       </c>
       <c r="M33" t="n">
-        <v>268.2301851264744</v>
+        <v>268.2301851264743</v>
       </c>
       <c r="N33" t="n">
         <v>275.3294399829463</v>
@@ -33526,7 +33526,7 @@
         <v>65.7273065717565</v>
       </c>
       <c r="S33" t="n">
-        <v>19.66340373914867</v>
+        <v>19.66340373914866</v>
       </c>
       <c r="T33" t="n">
         <v>4.266981826747964</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8875115164359206</v>
+        <v>0.8875115164359205</v>
       </c>
       <c r="H34" t="n">
-        <v>7.890784209766646</v>
+        <v>7.890784209766645</v>
       </c>
       <c r="I34" t="n">
         <v>26.68989178518206</v>
       </c>
       <c r="J34" t="n">
-        <v>62.74706421201959</v>
+        <v>62.74706421201958</v>
       </c>
       <c r="K34" t="n">
-        <v>103.1127016368279</v>
+        <v>103.1127016368278</v>
       </c>
       <c r="L34" t="n">
-        <v>131.9487576344823</v>
+        <v>131.9487576344822</v>
       </c>
       <c r="M34" t="n">
         <v>139.1214643445871</v>
@@ -33599,19 +33599,19 @@
         <v>107.340483769668</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.31698707173878</v>
+        <v>74.31698707173877</v>
       </c>
       <c r="R34" t="n">
-        <v>39.90574509356421</v>
+        <v>39.9057450935642</v>
       </c>
       <c r="S34" t="n">
-        <v>15.46690524552418</v>
+        <v>15.46690524552417</v>
       </c>
       <c r="T34" t="n">
         <v>3.792094661135296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.048409719078323</v>
+        <v>0.04840971907832299</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>20.26287314315802</v>
       </c>
       <c r="I35" t="n">
-        <v>76.27822940086419</v>
+        <v>76.27822940086418</v>
       </c>
       <c r="J35" t="n">
         <v>167.9273554921625</v>
@@ -33663,7 +33663,7 @@
         <v>251.6795752065411</v>
       </c>
       <c r="L35" t="n">
-        <v>312.2307680741035</v>
+        <v>312.2307680741034</v>
       </c>
       <c r="M35" t="n">
         <v>347.4168899107578</v>
@@ -33684,7 +33684,7 @@
         <v>124.2853855807544</v>
       </c>
       <c r="S35" t="n">
-        <v>45.08631482970476</v>
+        <v>45.08631482970475</v>
       </c>
       <c r="T35" t="n">
         <v>8.661123123073285</v>
@@ -33745,7 +33745,7 @@
         <v>229.8552071089859</v>
       </c>
       <c r="M36" t="n">
-        <v>268.2301851264744</v>
+        <v>268.2301851264743</v>
       </c>
       <c r="N36" t="n">
         <v>275.3294399829463</v>
@@ -33763,7 +33763,7 @@
         <v>65.7273065717565</v>
       </c>
       <c r="S36" t="n">
-        <v>19.66340373914867</v>
+        <v>19.66340373914866</v>
       </c>
       <c r="T36" t="n">
         <v>4.266981826747964</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8875115164359206</v>
+        <v>0.8875115164359205</v>
       </c>
       <c r="H37" t="n">
-        <v>7.890784209766646</v>
+        <v>7.890784209766645</v>
       </c>
       <c r="I37" t="n">
         <v>26.68989178518206</v>
       </c>
       <c r="J37" t="n">
-        <v>62.74706421201959</v>
+        <v>62.74706421201958</v>
       </c>
       <c r="K37" t="n">
-        <v>103.1127016368279</v>
+        <v>103.1127016368278</v>
       </c>
       <c r="L37" t="n">
-        <v>131.9487576344823</v>
+        <v>131.9487576344822</v>
       </c>
       <c r="M37" t="n">
         <v>139.1214643445871</v>
@@ -33836,19 +33836,19 @@
         <v>107.340483769668</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.31698707173878</v>
+        <v>74.31698707173877</v>
       </c>
       <c r="R37" t="n">
-        <v>39.90574509356421</v>
+        <v>39.9057450935642</v>
       </c>
       <c r="S37" t="n">
-        <v>15.46690524552418</v>
+        <v>15.46690524552417</v>
       </c>
       <c r="T37" t="n">
         <v>3.792094661135296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.048409719078323</v>
+        <v>0.04840971907832299</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>20.26287314315802</v>
       </c>
       <c r="I38" t="n">
-        <v>76.27822940086419</v>
+        <v>76.27822940086418</v>
       </c>
       <c r="J38" t="n">
         <v>167.9273554921625</v>
@@ -33900,7 +33900,7 @@
         <v>251.6795752065411</v>
       </c>
       <c r="L38" t="n">
-        <v>312.2307680741035</v>
+        <v>312.2307680741034</v>
       </c>
       <c r="M38" t="n">
         <v>347.4168899107578</v>
@@ -33921,7 +33921,7 @@
         <v>124.2853855807544</v>
       </c>
       <c r="S38" t="n">
-        <v>45.08631482970476</v>
+        <v>45.08631482970475</v>
       </c>
       <c r="T38" t="n">
         <v>8.661123123073285</v>
@@ -33982,7 +33982,7 @@
         <v>229.8552071089859</v>
       </c>
       <c r="M39" t="n">
-        <v>268.2301851264744</v>
+        <v>268.2301851264743</v>
       </c>
       <c r="N39" t="n">
         <v>275.3294399829463</v>
@@ -34000,7 +34000,7 @@
         <v>65.7273065717565</v>
       </c>
       <c r="S39" t="n">
-        <v>19.66340373914867</v>
+        <v>19.66340373914866</v>
       </c>
       <c r="T39" t="n">
         <v>4.266981826747964</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8875115164359206</v>
+        <v>0.8875115164359205</v>
       </c>
       <c r="H40" t="n">
-        <v>7.890784209766646</v>
+        <v>7.890784209766645</v>
       </c>
       <c r="I40" t="n">
         <v>26.68989178518206</v>
       </c>
       <c r="J40" t="n">
-        <v>62.74706421201959</v>
+        <v>62.74706421201958</v>
       </c>
       <c r="K40" t="n">
-        <v>103.1127016368279</v>
+        <v>103.1127016368278</v>
       </c>
       <c r="L40" t="n">
-        <v>131.9487576344823</v>
+        <v>131.9487576344822</v>
       </c>
       <c r="M40" t="n">
         <v>139.1214643445871</v>
@@ -34073,19 +34073,19 @@
         <v>107.340483769668</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.31698707173878</v>
+        <v>74.31698707173877</v>
       </c>
       <c r="R40" t="n">
-        <v>39.90574509356421</v>
+        <v>39.9057450935642</v>
       </c>
       <c r="S40" t="n">
-        <v>15.46690524552418</v>
+        <v>15.46690524552417</v>
       </c>
       <c r="T40" t="n">
         <v>3.792094661135296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.048409719078323</v>
+        <v>0.04840971907832299</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>251.6795752065411</v>
       </c>
       <c r="L41" t="n">
-        <v>312.2307680741035</v>
+        <v>312.2307680741031</v>
       </c>
       <c r="M41" t="n">
         <v>347.4168899107578</v>
@@ -34146,7 +34146,7 @@
         <v>353.0384584026897</v>
       </c>
       <c r="O41" t="n">
-        <v>333.3642052776042</v>
+        <v>333.3642052776046</v>
       </c>
       <c r="P41" t="n">
         <v>284.5186365509634</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>15.90699827720594</v>
       </c>
       <c r="J12" t="n">
-        <v>48.64714371357774</v>
+        <v>294.7768446980558</v>
       </c>
       <c r="K12" t="n">
         <v>115.1181453061135</v>
@@ -35509,10 +35509,10 @@
         <v>147.8903701908339</v>
       </c>
       <c r="Q12" t="n">
-        <v>398.9775616483914</v>
+        <v>109.8483757745859</v>
       </c>
       <c r="R12" t="n">
-        <v>68.49292032592773</v>
+        <v>95.58540693804935</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>76.97186159102012</v>
       </c>
       <c r="K13" t="n">
-        <v>227.846879554947</v>
+        <v>259.2261639825228</v>
       </c>
       <c r="L13" t="n">
         <v>394.471081149695</v>
       </c>
       <c r="M13" t="n">
-        <v>398.9775616483914</v>
+        <v>82.85652184580704</v>
       </c>
       <c r="N13" t="n">
         <v>84.10082136581569</v>
       </c>
       <c r="O13" t="n">
-        <v>69.37082063196459</v>
+        <v>226.5631212536025</v>
       </c>
       <c r="P13" t="n">
         <v>315.0934537187715</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.95746141181323</v>
+        <v>140.5069161651841</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>222.1360465891963</v>
       </c>
       <c r="O15" t="n">
-        <v>236.479745684121</v>
+        <v>194.1211686121838</v>
       </c>
       <c r="P15" t="n">
-        <v>398.9775616483913</v>
+        <v>209.6561830504106</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.43930650677478</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="R15" t="n">
-        <v>95.58540693804935</v>
+        <v>6.727107466351107</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.31391852906417</v>
+        <v>76.97186159102012</v>
       </c>
       <c r="K16" t="n">
-        <v>50.86233207776104</v>
+        <v>259.2261639825228</v>
       </c>
       <c r="L16" t="n">
         <v>394.471081149695</v>
       </c>
       <c r="M16" t="n">
-        <v>398.9775616483913</v>
+        <v>82.85652184580704</v>
       </c>
       <c r="N16" t="n">
-        <v>272.018790747763</v>
+        <v>84.10082136581569</v>
       </c>
       <c r="O16" t="n">
-        <v>387.6281533781671</v>
+        <v>226.5631212536022</v>
       </c>
       <c r="P16" t="n">
-        <v>51.56064212976326</v>
+        <v>315.0934537187715</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.95746141181323</v>
+        <v>140.5069161651841</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>216.7453700112587</v>
       </c>
       <c r="M17" t="n">
-        <v>254.1266654537123</v>
+        <v>254.1266654537124</v>
       </c>
       <c r="N17" t="n">
-        <v>260.1261676460704</v>
+        <v>260.1261676460705</v>
       </c>
       <c r="O17" t="n">
-        <v>240.1744296518215</v>
+        <v>240.1744296518216</v>
       </c>
       <c r="P17" t="n">
         <v>190.8692732700793</v>
@@ -35907,7 +35907,7 @@
         <v>123.6278425812661</v>
       </c>
       <c r="R17" t="n">
-        <v>36.97324276603089</v>
+        <v>36.97324276603091</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.90699827720593</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>48.64714371357773</v>
+        <v>48.64714371357774</v>
       </c>
       <c r="K18" t="n">
-        <v>115.1181453061135</v>
+        <v>272.1853349570524</v>
       </c>
       <c r="L18" t="n">
-        <v>173.7406832981369</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="M18" t="n">
         <v>210.665901388057</v>
@@ -35980,13 +35980,13 @@
         <v>194.1211686121838</v>
       </c>
       <c r="P18" t="n">
-        <v>398.9775616483913</v>
+        <v>147.8903701908339</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.8908853015066</v>
+        <v>78.43930650677478</v>
       </c>
       <c r="R18" t="n">
-        <v>95.58540693804932</v>
+        <v>6.727107466351107</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,16 +36044,16 @@
         <v>11.31391852906417</v>
       </c>
       <c r="K19" t="n">
-        <v>50.86233207776102</v>
+        <v>259.2261639825228</v>
       </c>
       <c r="L19" t="n">
         <v>77.32046374058075</v>
       </c>
       <c r="M19" t="n">
-        <v>325.636596567869</v>
+        <v>82.85652184580704</v>
       </c>
       <c r="N19" t="n">
-        <v>398.9775616483913</v>
+        <v>305.844349712321</v>
       </c>
       <c r="O19" t="n">
         <v>387.6281533781671</v>
@@ -36062,7 +36062,7 @@
         <v>315.0934537187715</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.95746141181321</v>
+        <v>140.5069161651841</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>294.7768446980558</v>
+        <v>48.64714371357773</v>
       </c>
       <c r="K21" t="n">
-        <v>251.2925123228284</v>
+        <v>115.1181453061135</v>
       </c>
       <c r="L21" t="n">
         <v>173.7406832981369</v>
@@ -36220,10 +36220,10 @@
         <v>147.8903701908339</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.43930650677478</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="R21" t="n">
-        <v>6.727107466351093</v>
+        <v>68.4929203259282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>11.31391852906417</v>
       </c>
       <c r="K22" t="n">
-        <v>50.86233207776102</v>
+        <v>166.0929520464526</v>
       </c>
       <c r="L22" t="n">
-        <v>394.471081149695</v>
+        <v>77.32046374058075</v>
       </c>
       <c r="M22" t="n">
-        <v>398.9775616483913</v>
+        <v>82.85652184580704</v>
       </c>
       <c r="N22" t="n">
-        <v>84.10082136581566</v>
+        <v>398.9775616483914</v>
       </c>
       <c r="O22" t="n">
-        <v>312.0133111711064</v>
+        <v>387.6281533781671</v>
       </c>
       <c r="P22" t="n">
         <v>315.0934537187715</v>
       </c>
       <c r="Q22" t="n">
-        <v>12.95746141181321</v>
+        <v>140.5069161651841</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15.90699827720593</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>48.64714371357773</v>
+        <v>110.4129565731539</v>
       </c>
       <c r="K24" t="n">
-        <v>392.6569155584019</v>
+        <v>115.1181453061135</v>
       </c>
       <c r="L24" t="n">
         <v>173.7406832981369</v>
@@ -36457,10 +36457,10 @@
         <v>147.8903701908339</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.43930650677478</v>
+        <v>398.9775616483911</v>
       </c>
       <c r="R24" t="n">
-        <v>95.58540693804932</v>
+        <v>6.727107466351093</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>76.97186159102012</v>
+        <v>11.31391852906417</v>
       </c>
       <c r="K25" t="n">
         <v>50.86233207776102</v>
@@ -36527,13 +36527,13 @@
         <v>398.9775616483911</v>
       </c>
       <c r="N25" t="n">
-        <v>84.10082136581566</v>
+        <v>398.9775616483911</v>
       </c>
       <c r="O25" t="n">
-        <v>246.35536810915</v>
+        <v>260.6693824775386</v>
       </c>
       <c r="P25" t="n">
-        <v>315.0934537187715</v>
+        <v>51.56064212976325</v>
       </c>
       <c r="Q25" t="n">
         <v>12.95746141181321</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>94.6037641588546</v>
+        <v>94.60376415885483</v>
       </c>
       <c r="K26" t="n">
-        <v>162.543185533324</v>
+        <v>162.5431855333239</v>
       </c>
       <c r="L26" t="n">
-        <v>216.7453700112587</v>
+        <v>216.7453700112586</v>
       </c>
       <c r="M26" t="n">
         <v>254.1266654537123</v>
@@ -36612,13 +36612,13 @@
         <v>240.1744296518215</v>
       </c>
       <c r="P26" t="n">
-        <v>190.8692732700793</v>
+        <v>190.8692732700792</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.6278425812661</v>
+        <v>123.627842581266</v>
       </c>
       <c r="R26" t="n">
-        <v>36.97324276603089</v>
+        <v>36.97324276603086</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>294.7768446980558</v>
+        <v>110.4129565731545</v>
       </c>
       <c r="K27" t="n">
         <v>115.1181453061135</v>
       </c>
       <c r="L27" t="n">
-        <v>173.7406832981369</v>
+        <v>173.7406832981368</v>
       </c>
       <c r="M27" t="n">
-        <v>346.8402684047714</v>
+        <v>210.6659013880569</v>
       </c>
       <c r="N27" t="n">
-        <v>222.1360465891963</v>
+        <v>222.1360465891962</v>
       </c>
       <c r="O27" t="n">
-        <v>194.1211686121838</v>
+        <v>194.1211686121837</v>
       </c>
       <c r="P27" t="n">
-        <v>147.8903701908339</v>
+        <v>147.8903701908338</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.43930650677478</v>
+        <v>398.9775616483912</v>
       </c>
       <c r="R27" t="n">
-        <v>6.727107466351093</v>
+        <v>6.727107466351079</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.31391852906417</v>
+        <v>11.31391852906415</v>
       </c>
       <c r="K28" t="n">
-        <v>50.86233207776102</v>
+        <v>50.862332077761</v>
       </c>
       <c r="L28" t="n">
-        <v>394.471081149695</v>
+        <v>267.5123102490666</v>
       </c>
       <c r="M28" t="n">
-        <v>398.9775616483911</v>
+        <v>398.9775616483912</v>
       </c>
       <c r="N28" t="n">
-        <v>398.9775616483911</v>
+        <v>398.9775616483912</v>
       </c>
       <c r="O28" t="n">
-        <v>260.6693824775386</v>
+        <v>387.6281533781671</v>
       </c>
       <c r="P28" t="n">
-        <v>51.56064212976325</v>
+        <v>51.56064212976323</v>
       </c>
       <c r="Q28" t="n">
-        <v>12.95746141181321</v>
+        <v>12.9574614118132</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>94.60376415885422</v>
+        <v>94.60376415885455</v>
       </c>
       <c r="K29" t="n">
-        <v>162.543185533324</v>
+        <v>162.5431855333239</v>
       </c>
       <c r="L29" t="n">
-        <v>216.7453700112587</v>
+        <v>216.7453700112586</v>
       </c>
       <c r="M29" t="n">
         <v>254.1266654537123</v>
@@ -36849,13 +36849,13 @@
         <v>240.1744296518215</v>
       </c>
       <c r="P29" t="n">
-        <v>190.8692732700793</v>
+        <v>190.8692732700792</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.6278425812661</v>
+        <v>123.627842581266</v>
       </c>
       <c r="R29" t="n">
-        <v>36.97324276603089</v>
+        <v>36.97324276603086</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.90699827720592</v>
       </c>
       <c r="J30" t="n">
-        <v>48.64714371357773</v>
+        <v>294.7768446980558</v>
       </c>
       <c r="K30" t="n">
         <v>115.1181453061135</v>
       </c>
       <c r="L30" t="n">
-        <v>173.7406832981369</v>
+        <v>173.7406832981368</v>
       </c>
       <c r="M30" t="n">
-        <v>210.665901388057</v>
+        <v>210.6659013880569</v>
       </c>
       <c r="N30" t="n">
-        <v>222.1360465891963</v>
+        <v>222.1360465891962</v>
       </c>
       <c r="O30" t="n">
-        <v>194.1211686121838</v>
+        <v>194.1211686121837</v>
       </c>
       <c r="P30" t="n">
-        <v>147.8903701908339</v>
+        <v>147.8903701908338</v>
       </c>
       <c r="Q30" t="n">
-        <v>398.9775616483911</v>
+        <v>109.8483757745856</v>
       </c>
       <c r="R30" t="n">
-        <v>68.49292032592727</v>
+        <v>95.58540693804932</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.31391852906417</v>
+        <v>11.31391852906415</v>
       </c>
       <c r="K31" t="n">
-        <v>50.86233207776102</v>
+        <v>50.862332077761</v>
       </c>
       <c r="L31" t="n">
-        <v>192.5510837092715</v>
+        <v>320.1005384626426</v>
       </c>
       <c r="M31" t="n">
-        <v>82.85652184580704</v>
+        <v>82.85652184580698</v>
       </c>
       <c r="N31" t="n">
-        <v>398.9775616483911</v>
+        <v>398.9775616483912</v>
       </c>
       <c r="O31" t="n">
         <v>387.6281533781671</v>
       </c>
       <c r="P31" t="n">
-        <v>315.0934537187715</v>
+        <v>315.0934537187714</v>
       </c>
       <c r="Q31" t="n">
-        <v>140.5069161651841</v>
+        <v>12.9574614118132</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>94.6037641588546</v>
+        <v>94.60376415885457</v>
       </c>
       <c r="K32" t="n">
-        <v>162.543185533324</v>
+        <v>162.5431855333239</v>
       </c>
       <c r="L32" t="n">
-        <v>216.7453700112587</v>
+        <v>216.7453700112586</v>
       </c>
       <c r="M32" t="n">
         <v>254.1266654537123</v>
@@ -37092,7 +37092,7 @@
         <v>123.6278425812661</v>
       </c>
       <c r="R32" t="n">
-        <v>36.97324276603089</v>
+        <v>36.97324276603088</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>15.90699827720593</v>
       </c>
       <c r="J33" t="n">
-        <v>48.64714371357773</v>
+        <v>294.7768446980558</v>
       </c>
       <c r="K33" t="n">
-        <v>398.9775616483911</v>
+        <v>115.1181453061135</v>
       </c>
       <c r="L33" t="n">
-        <v>173.7406832981369</v>
+        <v>173.7406832981368</v>
       </c>
       <c r="M33" t="n">
-        <v>293.2035547697659</v>
+        <v>210.6659013880569</v>
       </c>
       <c r="N33" t="n">
         <v>222.1360465891963</v>
@@ -37165,10 +37165,10 @@
         <v>194.1211686121838</v>
       </c>
       <c r="P33" t="n">
-        <v>147.8903701908339</v>
+        <v>147.8903701908338</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.43930650677478</v>
+        <v>198.7066752462833</v>
       </c>
       <c r="R33" t="n">
         <v>6.727107466351093</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.31391852906417</v>
+        <v>11.31391852906416</v>
       </c>
       <c r="K34" t="n">
-        <v>50.86233207776102</v>
+        <v>50.86233207776101</v>
       </c>
       <c r="L34" t="n">
-        <v>194.6873766528899</v>
+        <v>267.5123102490664</v>
       </c>
       <c r="M34" t="n">
         <v>398.9775616483911</v>
@@ -37241,13 +37241,13 @@
         <v>398.9775616483911</v>
       </c>
       <c r="O34" t="n">
-        <v>69.37082063196456</v>
+        <v>387.6281533781671</v>
       </c>
       <c r="P34" t="n">
-        <v>315.0934537187715</v>
+        <v>51.56064212976323</v>
       </c>
       <c r="Q34" t="n">
-        <v>140.5069161651841</v>
+        <v>12.9574614118132</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>94.6037641588546</v>
+        <v>94.60376415885457</v>
       </c>
       <c r="K35" t="n">
-        <v>162.543185533324</v>
+        <v>162.5431855333239</v>
       </c>
       <c r="L35" t="n">
-        <v>216.7453700112587</v>
+        <v>216.7453700112586</v>
       </c>
       <c r="M35" t="n">
         <v>254.1266654537123</v>
@@ -37329,7 +37329,7 @@
         <v>123.6278425812661</v>
       </c>
       <c r="R35" t="n">
-        <v>36.97324276603089</v>
+        <v>36.97324276603088</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>15.90699827720593</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>294.7768446980558</v>
+        <v>48.64714371357771</v>
       </c>
       <c r="K36" t="n">
         <v>115.1181453061135</v>
       </c>
       <c r="L36" t="n">
-        <v>173.7406832981369</v>
+        <v>173.7406832981368</v>
       </c>
       <c r="M36" t="n">
-        <v>210.665901388057</v>
+        <v>210.6659013880569</v>
       </c>
       <c r="N36" t="n">
         <v>222.1360465891963</v>
@@ -37402,13 +37402,13 @@
         <v>194.1211686121838</v>
       </c>
       <c r="P36" t="n">
-        <v>147.8903701908339</v>
+        <v>147.8903701908338</v>
       </c>
       <c r="Q36" t="n">
-        <v>198.7066752462833</v>
+        <v>371.885075036269</v>
       </c>
       <c r="R36" t="n">
-        <v>6.727107466351093</v>
+        <v>95.58540693804932</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.31391852906417</v>
+        <v>11.31391852906416</v>
       </c>
       <c r="K37" t="n">
-        <v>163.819074919913</v>
+        <v>50.86233207776101</v>
       </c>
       <c r="L37" t="n">
-        <v>394.471081149695</v>
+        <v>267.5123102490663</v>
       </c>
       <c r="M37" t="n">
-        <v>82.85652184580704</v>
+        <v>398.977561648391</v>
       </c>
       <c r="N37" t="n">
-        <v>84.10082136581566</v>
+        <v>398.977561648391</v>
       </c>
       <c r="O37" t="n">
         <v>387.6281533781671</v>
       </c>
       <c r="P37" t="n">
-        <v>315.0934537187715</v>
+        <v>51.56064212976323</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.5069161651841</v>
+        <v>12.9574614118132</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>94.6037641588546</v>
+        <v>94.60376415885457</v>
       </c>
       <c r="K38" t="n">
-        <v>162.543185533324</v>
+        <v>162.5431855333239</v>
       </c>
       <c r="L38" t="n">
-        <v>216.7453700112587</v>
+        <v>216.7453700112586</v>
       </c>
       <c r="M38" t="n">
         <v>254.1266654537123</v>
@@ -37566,7 +37566,7 @@
         <v>123.6278425812661</v>
       </c>
       <c r="R38" t="n">
-        <v>36.97324276603089</v>
+        <v>36.97324276603088</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>15.90699827720593</v>
       </c>
       <c r="J39" t="n">
-        <v>238.2026983783694</v>
+        <v>294.7768446980558</v>
       </c>
       <c r="K39" t="n">
         <v>115.1181453061135</v>
       </c>
       <c r="L39" t="n">
-        <v>173.7406832981369</v>
+        <v>173.7406832981368</v>
       </c>
       <c r="M39" t="n">
-        <v>210.665901388057</v>
+        <v>210.6659013880569</v>
       </c>
       <c r="N39" t="n">
-        <v>398.9775616483911</v>
+        <v>222.1360465891963</v>
       </c>
       <c r="O39" t="n">
         <v>194.1211686121838</v>
       </c>
       <c r="P39" t="n">
-        <v>147.8903701908339</v>
+        <v>147.8903701908338</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.43930650677478</v>
+        <v>109.8483757745852</v>
       </c>
       <c r="R39" t="n">
-        <v>6.727107466351093</v>
+        <v>95.58540693804932</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.31391852906417</v>
+        <v>11.31391852906416</v>
       </c>
       <c r="K40" t="n">
-        <v>50.86233207776102</v>
+        <v>259.2261639825227</v>
       </c>
       <c r="L40" t="n">
-        <v>267.5123102490664</v>
+        <v>394.4710811496949</v>
       </c>
       <c r="M40" t="n">
         <v>398.9775616483911</v>
       </c>
       <c r="N40" t="n">
-        <v>398.9775616483911</v>
+        <v>84.10082136581566</v>
       </c>
       <c r="O40" t="n">
-        <v>387.6281533781671</v>
+        <v>69.37082063196456</v>
       </c>
       <c r="P40" t="n">
-        <v>51.56064212976325</v>
+        <v>221.8226575997804</v>
       </c>
       <c r="Q40" t="n">
-        <v>12.95746141181321</v>
+        <v>140.5069161651841</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>162.543185533324</v>
       </c>
       <c r="L41" t="n">
-        <v>216.7453700112587</v>
+        <v>216.7453700112582</v>
       </c>
       <c r="M41" t="n">
         <v>254.1266654537123</v>
@@ -37794,7 +37794,7 @@
         <v>260.1261676460704</v>
       </c>
       <c r="O41" t="n">
-        <v>240.1744296518211</v>
+        <v>240.1744296518215</v>
       </c>
       <c r="P41" t="n">
         <v>190.8692732700793</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>15.90699827720593</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>48.64714371357773</v>
+        <v>294.7768446980558</v>
       </c>
       <c r="K42" t="n">
         <v>115.1181453061135</v>
       </c>
       <c r="L42" t="n">
-        <v>398.9775616483911</v>
+        <v>173.7406832981369</v>
       </c>
       <c r="M42" t="n">
         <v>210.665901388057</v>
@@ -37876,10 +37876,10 @@
         <v>194.1211686121838</v>
       </c>
       <c r="P42" t="n">
-        <v>289.0505615645661</v>
+        <v>147.8903701908339</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.43930650677478</v>
+        <v>214.6136735234893</v>
       </c>
       <c r="R42" t="n">
         <v>6.727107466351093</v>
@@ -37940,25 +37940,25 @@
         <v>11.31391852906417</v>
       </c>
       <c r="K43" t="n">
-        <v>50.86233207776102</v>
+        <v>165.9553678635315</v>
       </c>
       <c r="L43" t="n">
         <v>394.471081149695</v>
       </c>
       <c r="M43" t="n">
-        <v>82.85652184580704</v>
+        <v>398.9775616483911</v>
       </c>
       <c r="N43" t="n">
-        <v>398.9775616483911</v>
+        <v>84.10082136581566</v>
       </c>
       <c r="O43" t="n">
-        <v>387.6281533781671</v>
+        <v>69.37082063196456</v>
       </c>
       <c r="P43" t="n">
-        <v>240.7229110317188</v>
+        <v>315.0934537187715</v>
       </c>
       <c r="Q43" t="n">
-        <v>12.95746141181321</v>
+        <v>140.5069161651841</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>15.90699827720593</v>
       </c>
       <c r="J45" t="n">
-        <v>294.7768446980558</v>
+        <v>48.64714371357773</v>
       </c>
       <c r="K45" t="n">
         <v>115.1181453061135</v>
@@ -38116,10 +38116,10 @@
         <v>147.8903701908339</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.6136735234893</v>
+        <v>355.9780767590632</v>
       </c>
       <c r="R45" t="n">
-        <v>6.727107466351093</v>
+        <v>95.58540693804932</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>76.97186159102012</v>
+        <v>11.31391852906417</v>
       </c>
       <c r="K46" t="n">
         <v>50.86233207776102</v>
       </c>
       <c r="L46" t="n">
-        <v>77.32046374058075</v>
+        <v>267.5123102490664</v>
       </c>
       <c r="M46" t="n">
         <v>398.9775616483911</v>
@@ -38195,7 +38195,7 @@
         <v>51.56064212976325</v>
       </c>
       <c r="Q46" t="n">
-        <v>137.491364858343</v>
+        <v>12.95746141181321</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
